--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-21.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="855">
   <si>
     <t>League</t>
   </si>
@@ -1981,36 +1981,6 @@
     <t>Boyaca Patriotas</t>
   </si>
   <si>
-    <t>33208960</t>
-  </si>
-  <si>
-    <t>33193333</t>
-  </si>
-  <si>
-    <t>33173561</t>
-  </si>
-  <si>
-    <t>33193500</t>
-  </si>
-  <si>
-    <t>33192850</t>
-  </si>
-  <si>
-    <t>33201338</t>
-  </si>
-  <si>
-    <t>33193334</t>
-  </si>
-  <si>
-    <t>33193502</t>
-  </si>
-  <si>
-    <t>33173666</t>
-  </si>
-  <si>
-    <t>33176603</t>
-  </si>
-  <si>
     <t>33203437</t>
   </si>
   <si>
@@ -2131,36 +2101,6 @@
     <t>33202840</t>
   </si>
   <si>
-    <t>1.227875666</t>
-  </si>
-  <si>
-    <t>1.227623249</t>
-  </si>
-  <si>
-    <t>1.227280870</t>
-  </si>
-  <si>
-    <t>1.227622925</t>
-  </si>
-  <si>
-    <t>1.227604849</t>
-  </si>
-  <si>
-    <t>1.227759542</t>
-  </si>
-  <si>
-    <t>1.227619890</t>
-  </si>
-  <si>
-    <t>1.227620340</t>
-  </si>
-  <si>
-    <t>1.227284305</t>
-  </si>
-  <si>
-    <t>1.227343203</t>
-  </si>
-  <si>
     <t>1.227792349</t>
   </si>
   <si>
@@ -2281,36 +2221,6 @@
     <t>1.227782904</t>
   </si>
   <si>
-    <t>1.227875711</t>
-  </si>
-  <si>
-    <t>1.227623259</t>
-  </si>
-  <si>
-    <t>1.227280854</t>
-  </si>
-  <si>
-    <t>1.227622935</t>
-  </si>
-  <si>
-    <t>1.227604894</t>
-  </si>
-  <si>
-    <t>1.227759552</t>
-  </si>
-  <si>
-    <t>1.227619935</t>
-  </si>
-  <si>
-    <t>1.227620385</t>
-  </si>
-  <si>
-    <t>1.227284289</t>
-  </si>
-  <si>
-    <t>1.227343250</t>
-  </si>
-  <si>
     <t>1.227792394</t>
   </si>
   <si>
@@ -2431,36 +2341,6 @@
     <t>1.227782949</t>
   </si>
   <si>
-    <t>1.227875750</t>
-  </si>
-  <si>
-    <t>1.227623248</t>
-  </si>
-  <si>
-    <t>1.227280869</t>
-  </si>
-  <si>
-    <t>1.227622924</t>
-  </si>
-  <si>
-    <t>1.227604933</t>
-  </si>
-  <si>
-    <t>1.227759541</t>
-  </si>
-  <si>
-    <t>1.227619974</t>
-  </si>
-  <si>
-    <t>1.227620424</t>
-  </si>
-  <si>
-    <t>1.227284304</t>
-  </si>
-  <si>
-    <t>1.227343290</t>
-  </si>
-  <si>
     <t>1.227792433</t>
   </si>
   <si>
@@ -2579,36 +2459,6 @@
   </si>
   <si>
     <t>1.227782988</t>
-  </si>
-  <si>
-    <t>1.227875675</t>
-  </si>
-  <si>
-    <t>1.227623258</t>
-  </si>
-  <si>
-    <t>1.227280879</t>
-  </si>
-  <si>
-    <t>1.227622934</t>
-  </si>
-  <si>
-    <t>1.227604858</t>
-  </si>
-  <si>
-    <t>1.227759551</t>
-  </si>
-  <si>
-    <t>1.227619899</t>
-  </si>
-  <si>
-    <t>1.227620349</t>
-  </si>
-  <si>
-    <t>1.227284314</t>
-  </si>
-  <si>
-    <t>1.227343212</t>
   </si>
   <si>
     <t>1.227792358</t>
@@ -40300,8 +40150,8 @@
       <c r="BE189">
         <v>290</v>
       </c>
-      <c r="BF189" t="s">
-        <v>655</v>
+      <c r="BF189">
+        <v>33208960</v>
       </c>
       <c r="BG189">
         <v>12905685</v>
@@ -40312,17 +40162,17 @@
       <c r="BI189">
         <v>58805</v>
       </c>
-      <c r="BJ189" t="s">
-        <v>705</v>
-      </c>
-      <c r="BK189" t="s">
-        <v>755</v>
-      </c>
-      <c r="BL189" t="s">
-        <v>805</v>
-      </c>
-      <c r="BM189" t="s">
-        <v>855</v>
+      <c r="BJ189">
+        <v>1.227875666</v>
+      </c>
+      <c r="BK189">
+        <v>1.227875711</v>
+      </c>
+      <c r="BL189">
+        <v>1.22787575</v>
+      </c>
+      <c r="BM189">
+        <v>1.227875675</v>
       </c>
     </row>
     <row r="190" spans="1:65">
@@ -40497,8 +40347,8 @@
       <c r="BE190">
         <v>1000</v>
       </c>
-      <c r="BF190" t="s">
-        <v>656</v>
+      <c r="BF190">
+        <v>33193333</v>
       </c>
       <c r="BG190">
         <v>616839</v>
@@ -40509,17 +40359,17 @@
       <c r="BI190">
         <v>58805</v>
       </c>
-      <c r="BJ190" t="s">
-        <v>706</v>
-      </c>
-      <c r="BK190" t="s">
-        <v>756</v>
-      </c>
-      <c r="BL190" t="s">
-        <v>806</v>
-      </c>
-      <c r="BM190" t="s">
-        <v>856</v>
+      <c r="BJ190">
+        <v>1.227623249</v>
+      </c>
+      <c r="BK190">
+        <v>1.227623259</v>
+      </c>
+      <c r="BL190">
+        <v>1.227623248</v>
+      </c>
+      <c r="BM190">
+        <v>1.227623258</v>
       </c>
     </row>
     <row r="191" spans="1:65">
@@ -40694,8 +40544,8 @@
       <c r="BE191">
         <v>1000</v>
       </c>
-      <c r="BF191" t="s">
-        <v>657</v>
+      <c r="BF191">
+        <v>33173561</v>
       </c>
       <c r="BG191">
         <v>305969</v>
@@ -40706,17 +40556,17 @@
       <c r="BI191">
         <v>58805</v>
       </c>
-      <c r="BJ191" t="s">
-        <v>707</v>
-      </c>
-      <c r="BK191" t="s">
-        <v>757</v>
-      </c>
-      <c r="BL191" t="s">
-        <v>807</v>
-      </c>
-      <c r="BM191" t="s">
-        <v>857</v>
+      <c r="BJ191">
+        <v>1.22728087</v>
+      </c>
+      <c r="BK191">
+        <v>1.227280854</v>
+      </c>
+      <c r="BL191">
+        <v>1.227280869</v>
+      </c>
+      <c r="BM191">
+        <v>1.227280879</v>
       </c>
     </row>
     <row r="192" spans="1:65">
@@ -40891,8 +40741,8 @@
       <c r="BE192">
         <v>1000</v>
       </c>
-      <c r="BF192" t="s">
-        <v>658</v>
+      <c r="BF192">
+        <v>33193500</v>
       </c>
       <c r="BG192">
         <v>65808</v>
@@ -40903,17 +40753,17 @@
       <c r="BI192">
         <v>58805</v>
       </c>
-      <c r="BJ192" t="s">
-        <v>708</v>
-      </c>
-      <c r="BK192" t="s">
-        <v>758</v>
-      </c>
-      <c r="BL192" t="s">
-        <v>808</v>
-      </c>
-      <c r="BM192" t="s">
-        <v>858</v>
+      <c r="BJ192">
+        <v>1.227622925</v>
+      </c>
+      <c r="BK192">
+        <v>1.227622935</v>
+      </c>
+      <c r="BL192">
+        <v>1.227622924</v>
+      </c>
+      <c r="BM192">
+        <v>1.227622934</v>
       </c>
     </row>
     <row r="193" spans="1:65">
@@ -41088,8 +40938,8 @@
       <c r="BE193">
         <v>1000</v>
       </c>
-      <c r="BF193" t="s">
-        <v>659</v>
+      <c r="BF193">
+        <v>33192850</v>
       </c>
       <c r="BG193">
         <v>20731976</v>
@@ -41100,17 +40950,17 @@
       <c r="BI193">
         <v>58805</v>
       </c>
-      <c r="BJ193" t="s">
-        <v>709</v>
-      </c>
-      <c r="BK193" t="s">
-        <v>759</v>
-      </c>
-      <c r="BL193" t="s">
-        <v>809</v>
-      </c>
-      <c r="BM193" t="s">
-        <v>859</v>
+      <c r="BJ193">
+        <v>1.227604849</v>
+      </c>
+      <c r="BK193">
+        <v>1.227604894</v>
+      </c>
+      <c r="BL193">
+        <v>1.227604933</v>
+      </c>
+      <c r="BM193">
+        <v>1.227604858</v>
       </c>
     </row>
     <row r="194" spans="1:65">
@@ -41285,8 +41135,8 @@
       <c r="BE194">
         <v>1000</v>
       </c>
-      <c r="BF194" t="s">
-        <v>660</v>
+      <c r="BF194">
+        <v>33201338</v>
       </c>
       <c r="BG194">
         <v>373549</v>
@@ -41297,17 +41147,17 @@
       <c r="BI194">
         <v>58805</v>
       </c>
-      <c r="BJ194" t="s">
-        <v>710</v>
-      </c>
-      <c r="BK194" t="s">
-        <v>760</v>
-      </c>
-      <c r="BL194" t="s">
-        <v>810</v>
-      </c>
-      <c r="BM194" t="s">
-        <v>860</v>
+      <c r="BJ194">
+        <v>1.227759542</v>
+      </c>
+      <c r="BK194">
+        <v>1.227759552</v>
+      </c>
+      <c r="BL194">
+        <v>1.227759541</v>
+      </c>
+      <c r="BM194">
+        <v>1.227759551</v>
       </c>
     </row>
     <row r="195" spans="1:65">
@@ -41482,8 +41332,8 @@
       <c r="BE195">
         <v>1000</v>
       </c>
-      <c r="BF195" t="s">
-        <v>661</v>
+      <c r="BF195">
+        <v>33193334</v>
       </c>
       <c r="BG195">
         <v>166890</v>
@@ -41494,17 +41344,17 @@
       <c r="BI195">
         <v>58805</v>
       </c>
-      <c r="BJ195" t="s">
-        <v>711</v>
-      </c>
-      <c r="BK195" t="s">
-        <v>761</v>
-      </c>
-      <c r="BL195" t="s">
-        <v>811</v>
-      </c>
-      <c r="BM195" t="s">
-        <v>861</v>
+      <c r="BJ195">
+        <v>1.22761989</v>
+      </c>
+      <c r="BK195">
+        <v>1.227619935</v>
+      </c>
+      <c r="BL195">
+        <v>1.227619974</v>
+      </c>
+      <c r="BM195">
+        <v>1.227619899</v>
       </c>
     </row>
     <row r="196" spans="1:65">
@@ -41679,8 +41529,8 @@
       <c r="BE196">
         <v>1000</v>
       </c>
-      <c r="BF196" t="s">
-        <v>662</v>
+      <c r="BF196">
+        <v>33193502</v>
       </c>
       <c r="BG196">
         <v>6542374</v>
@@ -41691,17 +41541,17 @@
       <c r="BI196">
         <v>58805</v>
       </c>
-      <c r="BJ196" t="s">
-        <v>712</v>
-      </c>
-      <c r="BK196" t="s">
-        <v>762</v>
-      </c>
-      <c r="BL196" t="s">
-        <v>812</v>
-      </c>
-      <c r="BM196" t="s">
-        <v>862</v>
+      <c r="BJ196">
+        <v>1.22762034</v>
+      </c>
+      <c r="BK196">
+        <v>1.227620385</v>
+      </c>
+      <c r="BL196">
+        <v>1.227620424</v>
+      </c>
+      <c r="BM196">
+        <v>1.227620349</v>
       </c>
     </row>
     <row r="197" spans="1:65">
@@ -41876,8 +41726,8 @@
       <c r="BE197">
         <v>980</v>
       </c>
-      <c r="BF197" t="s">
-        <v>663</v>
+      <c r="BF197">
+        <v>33173666</v>
       </c>
       <c r="BG197">
         <v>44520</v>
@@ -41888,17 +41738,17 @@
       <c r="BI197">
         <v>58805</v>
       </c>
-      <c r="BJ197" t="s">
-        <v>713</v>
-      </c>
-      <c r="BK197" t="s">
-        <v>763</v>
-      </c>
-      <c r="BL197" t="s">
-        <v>813</v>
-      </c>
-      <c r="BM197" t="s">
-        <v>863</v>
+      <c r="BJ197">
+        <v>1.227284305</v>
+      </c>
+      <c r="BK197">
+        <v>1.227284289</v>
+      </c>
+      <c r="BL197">
+        <v>1.227284304</v>
+      </c>
+      <c r="BM197">
+        <v>1.227284314</v>
       </c>
     </row>
     <row r="198" spans="1:65">
@@ -42073,8 +41923,8 @@
       <c r="BE198">
         <v>570</v>
       </c>
-      <c r="BF198" t="s">
-        <v>664</v>
+      <c r="BF198">
+        <v>33176603</v>
       </c>
       <c r="BG198">
         <v>55243</v>
@@ -42085,17 +41935,17 @@
       <c r="BI198">
         <v>58805</v>
       </c>
-      <c r="BJ198" t="s">
-        <v>714</v>
-      </c>
-      <c r="BK198" t="s">
-        <v>764</v>
-      </c>
-      <c r="BL198" t="s">
-        <v>814</v>
-      </c>
-      <c r="BM198" t="s">
-        <v>864</v>
+      <c r="BJ198">
+        <v>1.227343203</v>
+      </c>
+      <c r="BK198">
+        <v>1.22734325</v>
+      </c>
+      <c r="BL198">
+        <v>1.22734329</v>
+      </c>
+      <c r="BM198">
+        <v>1.227343212</v>
       </c>
     </row>
     <row r="199" spans="1:65">
@@ -42271,7 +42121,7 @@
         <v>1000</v>
       </c>
       <c r="BF199" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="BG199">
         <v>10465584</v>
@@ -42283,16 +42133,16 @@
         <v>58805</v>
       </c>
       <c r="BJ199" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="BK199" t="s">
-        <v>765</v>
+        <v>735</v>
       </c>
       <c r="BL199" t="s">
+        <v>775</v>
+      </c>
+      <c r="BM199" t="s">
         <v>815</v>
-      </c>
-      <c r="BM199" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="200" spans="1:65">
@@ -42345,10 +42195,10 @@
         <v>1.83</v>
       </c>
       <c r="Q200">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="R200">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="S200">
         <v>2.2</v>
@@ -42390,7 +42240,7 @@
         <v>14</v>
       </c>
       <c r="AF200">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AG200">
         <v>20</v>
@@ -42468,7 +42318,7 @@
         <v>1000</v>
       </c>
       <c r="BF200" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="BG200">
         <v>9899252</v>
@@ -42480,16 +42330,16 @@
         <v>58805</v>
       </c>
       <c r="BJ200" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="BK200" t="s">
-        <v>766</v>
+        <v>736</v>
       </c>
       <c r="BL200" t="s">
+        <v>776</v>
+      </c>
+      <c r="BM200" t="s">
         <v>816</v>
-      </c>
-      <c r="BM200" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="201" spans="1:65">
@@ -42665,7 +42515,7 @@
         <v>1000</v>
       </c>
       <c r="BF201" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="BG201">
         <v>522054</v>
@@ -42677,16 +42527,16 @@
         <v>58805</v>
       </c>
       <c r="BJ201" t="s">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="BK201" t="s">
-        <v>767</v>
+        <v>737</v>
       </c>
       <c r="BL201" t="s">
+        <v>777</v>
+      </c>
+      <c r="BM201" t="s">
         <v>817</v>
-      </c>
-      <c r="BM201" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="202" spans="1:65">
@@ -42709,7 +42559,7 @@
         <v>2.1</v>
       </c>
       <c r="G202">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="H202">
         <v>3.85</v>
@@ -42727,10 +42577,10 @@
         <v>1.62</v>
       </c>
       <c r="M202">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="N202">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="O202">
         <v>2.62</v>
@@ -42862,7 +42712,7 @@
         <v>1000</v>
       </c>
       <c r="BF202" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="BG202">
         <v>60300</v>
@@ -42874,16 +42724,16 @@
         <v>58805</v>
       </c>
       <c r="BJ202" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="BK202" t="s">
-        <v>768</v>
+        <v>738</v>
       </c>
       <c r="BL202" t="s">
+        <v>778</v>
+      </c>
+      <c r="BM202" t="s">
         <v>818</v>
-      </c>
-      <c r="BM202" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="203" spans="1:65">
@@ -42903,13 +42753,13 @@
         <v>619</v>
       </c>
       <c r="F203">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="G203">
         <v>1.57</v>
       </c>
       <c r="H203">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I203">
         <v>7.6</v>
@@ -42918,28 +42768,28 @@
         <v>4.4</v>
       </c>
       <c r="K203">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L203">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="M203">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="N203">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="O203">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="P203">
         <v>2</v>
       </c>
       <c r="Q203">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="R203">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="S203">
         <v>2</v>
@@ -42948,7 +42798,7 @@
         <v>13</v>
       </c>
       <c r="U203">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="V203">
         <v>21</v>
@@ -42957,37 +42807,37 @@
         <v>25</v>
       </c>
       <c r="X203">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Y203">
         <v>65</v>
       </c>
       <c r="Z203">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AA203">
         <v>270</v>
       </c>
       <c r="AB203">
-        <v>6.8</v>
+        <v>5.1</v>
       </c>
       <c r="AC203">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD203">
         <v>9.199999999999999</v>
       </c>
       <c r="AE203">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="AF203">
-        <v>21</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG203">
         <v>30</v>
       </c>
       <c r="AH203">
-        <v>10</v>
+        <v>4.4</v>
       </c>
       <c r="AI203">
         <v>130</v>
@@ -43002,22 +42852,22 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AM203">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="AN203">
-        <v>18</v>
+        <v>9.4</v>
       </c>
       <c r="AO203">
         <v>26</v>
       </c>
       <c r="AP203">
-        <v>11.5</v>
+        <v>4.4</v>
       </c>
       <c r="AQ203">
         <v>120</v>
       </c>
       <c r="AR203">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AS203">
         <v>14</v>
@@ -43029,37 +42879,37 @@
         <v>17.5</v>
       </c>
       <c r="AV203">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AW203">
         <v>40</v>
       </c>
       <c r="AX203">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="AY203">
         <v>160</v>
       </c>
       <c r="AZ203">
-        <v>7.4</v>
+        <v>5.3</v>
       </c>
       <c r="BA203">
         <v>10.5</v>
       </c>
       <c r="BB203">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="BC203">
         <v>160</v>
       </c>
       <c r="BD203">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="BE203">
         <v>1000</v>
       </c>
       <c r="BF203" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="BG203">
         <v>6555084</v>
@@ -43071,16 +42921,16 @@
         <v>58805</v>
       </c>
       <c r="BJ203" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
       <c r="BK203" t="s">
-        <v>769</v>
+        <v>739</v>
       </c>
       <c r="BL203" t="s">
+        <v>779</v>
+      </c>
+      <c r="BM203" t="s">
         <v>819</v>
-      </c>
-      <c r="BM203" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="204" spans="1:65">
@@ -43103,7 +42953,7 @@
         <v>1.71</v>
       </c>
       <c r="G204">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="H204">
         <v>5.3</v>
@@ -43118,16 +42968,16 @@
         <v>4.2</v>
       </c>
       <c r="L204">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="M204">
         <v>1.99</v>
       </c>
       <c r="N204">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="O204">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="P204">
         <v>1.87</v>
@@ -43142,13 +42992,13 @@
         <v>2.02</v>
       </c>
       <c r="T204">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="U204">
         <v>13.5</v>
       </c>
       <c r="V204">
-        <v>12.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="W204">
         <v>19.5</v>
@@ -43166,13 +43016,13 @@
         <v>1000</v>
       </c>
       <c r="AB204">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AC204">
         <v>9</v>
       </c>
       <c r="AD204">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AE204">
         <v>14</v>
@@ -43181,7 +43031,7 @@
         <v>4.4</v>
       </c>
       <c r="AG204">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH204">
         <v>5</v>
@@ -43190,7 +43040,7 @@
         <v>100</v>
       </c>
       <c r="AJ204">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="AK204">
         <v>12</v>
@@ -43250,13 +43100,13 @@
         <v>140</v>
       </c>
       <c r="BD204">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="BE204">
         <v>1000</v>
       </c>
       <c r="BF204" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="BG204">
         <v>11926102</v>
@@ -43268,16 +43118,16 @@
         <v>58805</v>
       </c>
       <c r="BJ204" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="BK204" t="s">
-        <v>770</v>
+        <v>740</v>
       </c>
       <c r="BL204" t="s">
+        <v>780</v>
+      </c>
+      <c r="BM204" t="s">
         <v>820</v>
-      </c>
-      <c r="BM204" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="205" spans="1:65">
@@ -43297,31 +43147,31 @@
         <v>621</v>
       </c>
       <c r="F205">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="G205">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="H205">
         <v>2.2</v>
       </c>
       <c r="I205">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="J205">
         <v>3.2</v>
       </c>
       <c r="K205">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L205">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="M205">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="N205">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="O205">
         <v>2.36</v>
@@ -43330,10 +43180,10 @@
         <v>1.87</v>
       </c>
       <c r="Q205">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R205">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="S205">
         <v>2.14</v>
@@ -43360,7 +43210,7 @@
         <v>4.1</v>
       </c>
       <c r="AA205">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB205">
         <v>3.55</v>
@@ -43369,13 +43219,13 @@
         <v>15</v>
       </c>
       <c r="AD205">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AE205">
         <v>14</v>
       </c>
       <c r="AF205">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AG205">
         <v>14</v>
@@ -43435,7 +43285,7 @@
         <v>1000</v>
       </c>
       <c r="AZ205">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BA205">
         <v>65</v>
@@ -43453,7 +43303,7 @@
         <v>1000</v>
       </c>
       <c r="BF205" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="BG205">
         <v>25562564</v>
@@ -43465,16 +43315,16 @@
         <v>58805</v>
       </c>
       <c r="BJ205" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="BK205" t="s">
-        <v>771</v>
+        <v>741</v>
       </c>
       <c r="BL205" t="s">
+        <v>781</v>
+      </c>
+      <c r="BM205" t="s">
         <v>821</v>
-      </c>
-      <c r="BM205" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="206" spans="1:65">
@@ -43509,16 +43359,16 @@
         <v>4.2</v>
       </c>
       <c r="K206">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="L206">
         <v>1.84</v>
       </c>
       <c r="M206">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="N206">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="O206">
         <v>2.2</v>
@@ -43530,19 +43380,19 @@
         <v>2.46</v>
       </c>
       <c r="R206">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S206">
         <v>1.94</v>
       </c>
       <c r="T206">
-        <v>3.65</v>
+        <v>11</v>
       </c>
       <c r="U206">
         <v>980</v>
       </c>
       <c r="V206">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="W206">
         <v>980</v>
@@ -43560,13 +43410,13 @@
         <v>1000</v>
       </c>
       <c r="AB206">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AC206">
         <v>980</v>
       </c>
       <c r="AD206">
-        <v>3.35</v>
+        <v>7.6</v>
       </c>
       <c r="AE206">
         <v>980</v>
@@ -43584,19 +43434,19 @@
         <v>1000</v>
       </c>
       <c r="AJ206">
-        <v>3.15</v>
+        <v>6.6</v>
       </c>
       <c r="AK206">
         <v>9.800000000000001</v>
       </c>
       <c r="AL206">
-        <v>3.35</v>
+        <v>8.4</v>
       </c>
       <c r="AM206">
         <v>980</v>
       </c>
       <c r="AN206">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AO206">
         <v>980</v>
@@ -43608,19 +43458,19 @@
         <v>1000</v>
       </c>
       <c r="AR206">
-        <v>3.6</v>
+        <v>10.5</v>
       </c>
       <c r="AS206">
         <v>16</v>
       </c>
       <c r="AT206">
-        <v>3.8</v>
+        <v>14</v>
       </c>
       <c r="AU206">
         <v>22</v>
       </c>
       <c r="AV206">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AW206">
         <v>55</v>
@@ -43635,22 +43485,22 @@
         <v>3.15</v>
       </c>
       <c r="BA206">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="BB206">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="BC206">
         <v>1000</v>
       </c>
       <c r="BD206">
-        <v>3.35</v>
+        <v>4.6</v>
       </c>
       <c r="BE206">
         <v>1000</v>
       </c>
       <c r="BF206" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="BG206">
         <v>10647603</v>
@@ -43662,16 +43512,16 @@
         <v>58805</v>
       </c>
       <c r="BJ206" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="BK206" t="s">
-        <v>772</v>
+        <v>742</v>
       </c>
       <c r="BL206" t="s">
+        <v>782</v>
+      </c>
+      <c r="BM206" t="s">
         <v>822</v>
-      </c>
-      <c r="BM206" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="207" spans="1:65">
@@ -43700,10 +43550,10 @@
         <v>2.54</v>
       </c>
       <c r="I207">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="J207">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K207">
         <v>3.45</v>
@@ -43712,10 +43562,10 @@
         <v>1.7</v>
       </c>
       <c r="M207">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="N207">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="O207">
         <v>2.44</v>
@@ -43745,7 +43595,7 @@
         <v>10.5</v>
       </c>
       <c r="X207">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y207">
         <v>18</v>
@@ -43784,13 +43634,13 @@
         <v>16</v>
       </c>
       <c r="AK207">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL207">
         <v>11.5</v>
       </c>
       <c r="AM207">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AN207">
         <v>17</v>
@@ -43832,10 +43682,10 @@
         <v>4.6</v>
       </c>
       <c r="BA207">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="BB207">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="BC207">
         <v>36</v>
@@ -43847,7 +43697,7 @@
         <v>1000</v>
       </c>
       <c r="BF207" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="BG207">
         <v>522053</v>
@@ -43859,16 +43709,16 @@
         <v>58805</v>
       </c>
       <c r="BJ207" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
       <c r="BK207" t="s">
-        <v>773</v>
+        <v>743</v>
       </c>
       <c r="BL207" t="s">
+        <v>783</v>
+      </c>
+      <c r="BM207" t="s">
         <v>823</v>
-      </c>
-      <c r="BM207" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="208" spans="1:65">
@@ -43909,10 +43759,10 @@
         <v>1.67</v>
       </c>
       <c r="M208">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="N208">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="O208">
         <v>2.52</v>
@@ -44044,7 +43894,7 @@
         <v>1000</v>
       </c>
       <c r="BF208" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="BG208">
         <v>7602657</v>
@@ -44056,16 +43906,16 @@
         <v>58805</v>
       </c>
       <c r="BJ208" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
       <c r="BK208" t="s">
-        <v>774</v>
+        <v>744</v>
       </c>
       <c r="BL208" t="s">
+        <v>784</v>
+      </c>
+      <c r="BM208" t="s">
         <v>824</v>
-      </c>
-      <c r="BM208" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="209" spans="1:65">
@@ -44094,22 +43944,22 @@
         <v>2.38</v>
       </c>
       <c r="I209">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="J209">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K209">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L209">
         <v>1.6</v>
       </c>
       <c r="M209">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="N209">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="O209">
         <v>2.66</v>
@@ -44241,7 +44091,7 @@
         <v>1000</v>
       </c>
       <c r="BF209" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="BG209">
         <v>2519555</v>
@@ -44253,16 +44103,16 @@
         <v>58805</v>
       </c>
       <c r="BJ209" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
       <c r="BK209" t="s">
-        <v>775</v>
+        <v>745</v>
       </c>
       <c r="BL209" t="s">
+        <v>785</v>
+      </c>
+      <c r="BM209" t="s">
         <v>825</v>
-      </c>
-      <c r="BM209" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="210" spans="1:65">
@@ -44282,34 +44132,34 @@
         <v>626</v>
       </c>
       <c r="F210">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G210">
-        <v>6.6</v>
+        <v>480</v>
       </c>
       <c r="H210">
-        <v>2.16</v>
+        <v>1.55</v>
       </c>
       <c r="I210">
         <v>20</v>
       </c>
       <c r="J210">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="K210">
-        <v>5.4</v>
+        <v>32</v>
       </c>
       <c r="L210">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="M210">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="N210">
-        <v>2.42</v>
+        <v>1.1</v>
       </c>
       <c r="O210">
-        <v>3.05</v>
+        <v>4.1</v>
       </c>
       <c r="P210">
         <v>1.01</v>
@@ -44324,7 +44174,7 @@
         <v>1000</v>
       </c>
       <c r="T210">
-        <v>1.27</v>
+        <v>1.48</v>
       </c>
       <c r="U210">
         <v>1000</v>
@@ -44438,7 +44288,7 @@
         <v>1000</v>
       </c>
       <c r="BF210" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="BG210">
         <v>10286550</v>
@@ -44450,16 +44300,16 @@
         <v>58805</v>
       </c>
       <c r="BJ210" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
       <c r="BK210" t="s">
-        <v>776</v>
+        <v>746</v>
       </c>
       <c r="BL210" t="s">
+        <v>786</v>
+      </c>
+      <c r="BM210" t="s">
         <v>826</v>
-      </c>
-      <c r="BM210" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="211" spans="1:65">
@@ -44479,7 +44329,7 @@
         <v>627</v>
       </c>
       <c r="F211">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G211">
         <v>2.24</v>
@@ -44488,25 +44338,25 @@
         <v>3.75</v>
       </c>
       <c r="I211">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J211">
         <v>3.45</v>
       </c>
       <c r="K211">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L211">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="M211">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="N211">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="O211">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="P211">
         <v>1.91</v>
@@ -44635,7 +44485,7 @@
         <v>1000</v>
       </c>
       <c r="BF211" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="BG211">
         <v>166903</v>
@@ -44647,16 +44497,16 @@
         <v>58805</v>
       </c>
       <c r="BJ211" t="s">
-        <v>727</v>
+        <v>707</v>
       </c>
       <c r="BK211" t="s">
-        <v>777</v>
+        <v>747</v>
       </c>
       <c r="BL211" t="s">
+        <v>787</v>
+      </c>
+      <c r="BM211" t="s">
         <v>827</v>
-      </c>
-      <c r="BM211" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="212" spans="1:65">
@@ -44688,10 +44538,10 @@
         <v>3.8</v>
       </c>
       <c r="J212">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K212">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L212">
         <v>1.61</v>
@@ -44706,7 +44556,7 @@
         <v>2.66</v>
       </c>
       <c r="P212">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q212">
         <v>2.22</v>
@@ -44715,7 +44565,7 @@
         <v>1.81</v>
       </c>
       <c r="S212">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="T212">
         <v>8.199999999999999</v>
@@ -44736,7 +44586,7 @@
         <v>23</v>
       </c>
       <c r="Z212">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AA212">
         <v>80</v>
@@ -44784,7 +44634,7 @@
         <v>23</v>
       </c>
       <c r="AP212">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AQ212">
         <v>80</v>
@@ -44808,7 +44658,7 @@
         <v>60</v>
       </c>
       <c r="AX212">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AY212">
         <v>180</v>
@@ -44820,19 +44670,19 @@
         <v>32</v>
       </c>
       <c r="BB212">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="BC212">
         <v>75</v>
       </c>
       <c r="BD212">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="BE212">
         <v>1000</v>
       </c>
       <c r="BF212" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="BG212">
         <v>194515</v>
@@ -44844,16 +44694,16 @@
         <v>58805</v>
       </c>
       <c r="BJ212" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
       <c r="BK212" t="s">
-        <v>778</v>
+        <v>748</v>
       </c>
       <c r="BL212" t="s">
+        <v>788</v>
+      </c>
+      <c r="BM212" t="s">
         <v>828</v>
-      </c>
-      <c r="BM212" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="213" spans="1:65">
@@ -44873,16 +44723,16 @@
         <v>629</v>
       </c>
       <c r="F213">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="G213">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H213">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="I213">
-        <v>2.88</v>
+        <v>2.74</v>
       </c>
       <c r="J213">
         <v>3.1</v>
@@ -44891,145 +44741,145 @@
         <v>3.4</v>
       </c>
       <c r="L213">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="M213">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="N213">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="O213">
         <v>2.44</v>
       </c>
       <c r="P213">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q213">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="R213">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="S213">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="T213">
-        <v>3.45</v>
+        <v>8.6</v>
       </c>
       <c r="U213">
         <v>11.5</v>
       </c>
       <c r="V213">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="W213">
         <v>11.5</v>
       </c>
       <c r="X213">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y213">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z213">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AA213">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AB213">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC213">
         <v>11.5</v>
       </c>
       <c r="AD213">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="AE213">
         <v>8.800000000000001</v>
       </c>
       <c r="AF213">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="AG213">
         <v>15.5</v>
       </c>
       <c r="AH213">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AI213">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ213">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AK213">
         <v>22</v>
       </c>
       <c r="AL213">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="AM213">
         <v>16</v>
       </c>
       <c r="AN213">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AO213">
         <v>25</v>
       </c>
       <c r="AP213">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AQ213">
         <v>65</v>
       </c>
       <c r="AR213">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AS213">
         <v>1000</v>
       </c>
       <c r="AT213">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AU213">
         <v>46</v>
       </c>
       <c r="AV213">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="AW213">
         <v>1000</v>
       </c>
       <c r="AX213">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AY213">
         <v>160</v>
       </c>
       <c r="AZ213">
-        <v>1.55</v>
+        <v>3.7</v>
       </c>
       <c r="BA213">
         <v>46</v>
       </c>
       <c r="BB213">
-        <v>1.55</v>
+        <v>3.65</v>
       </c>
       <c r="BC213">
         <v>40</v>
       </c>
       <c r="BD213">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="BE213">
         <v>1000</v>
       </c>
       <c r="BF213" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="BG213">
         <v>3206731</v>
@@ -45041,16 +44891,16 @@
         <v>58805</v>
       </c>
       <c r="BJ213" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="BK213" t="s">
-        <v>779</v>
+        <v>749</v>
       </c>
       <c r="BL213" t="s">
+        <v>789</v>
+      </c>
+      <c r="BM213" t="s">
         <v>829</v>
-      </c>
-      <c r="BM213" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="214" spans="1:65">
@@ -45082,7 +44932,7 @@
         <v>1.94</v>
       </c>
       <c r="J214">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K214">
         <v>3.8</v>
@@ -45121,7 +44971,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="W214">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X214">
         <v>10.5</v>
@@ -45157,7 +45007,7 @@
         <v>19</v>
       </c>
       <c r="AI214">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AJ214">
         <v>29</v>
@@ -45184,10 +45034,10 @@
         <v>38</v>
       </c>
       <c r="AR214">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AS214">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AT214">
         <v>50</v>
@@ -45196,7 +45046,7 @@
         <v>60</v>
       </c>
       <c r="AV214">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW214">
         <v>65</v>
@@ -45226,7 +45076,7 @@
         <v>1000</v>
       </c>
       <c r="BF214" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="BG214">
         <v>13659467</v>
@@ -45238,16 +45088,16 @@
         <v>58805</v>
       </c>
       <c r="BJ214" t="s">
-        <v>730</v>
+        <v>710</v>
       </c>
       <c r="BK214" t="s">
-        <v>780</v>
+        <v>750</v>
       </c>
       <c r="BL214" t="s">
+        <v>790</v>
+      </c>
+      <c r="BM214" t="s">
         <v>830</v>
-      </c>
-      <c r="BM214" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="215" spans="1:65">
@@ -45267,7 +45117,7 @@
         <v>631</v>
       </c>
       <c r="F215">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="G215">
         <v>1.85</v>
@@ -45297,7 +45147,7 @@
         <v>1.57</v>
       </c>
       <c r="P215">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q215">
         <v>1.6</v>
@@ -45306,13 +45156,13 @@
         <v>2.66</v>
       </c>
       <c r="S215">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="T215">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U215">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V215">
         <v>22</v>
@@ -45327,13 +45177,13 @@
         <v>38</v>
       </c>
       <c r="Z215">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AA215">
         <v>85</v>
       </c>
       <c r="AB215">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC215">
         <v>14</v>
@@ -45423,7 +45273,7 @@
         <v>360</v>
       </c>
       <c r="BF215" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="BG215">
         <v>2426</v>
@@ -45435,16 +45285,16 @@
         <v>58805</v>
       </c>
       <c r="BJ215" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
       <c r="BK215" t="s">
-        <v>781</v>
+        <v>751</v>
       </c>
       <c r="BL215" t="s">
+        <v>791</v>
+      </c>
+      <c r="BM215" t="s">
         <v>831</v>
-      </c>
-      <c r="BM215" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="216" spans="1:65">
@@ -45515,7 +45365,7 @@
         <v>30</v>
       </c>
       <c r="W216">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X216">
         <v>50</v>
@@ -45530,7 +45380,7 @@
         <v>170</v>
       </c>
       <c r="AB216">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC216">
         <v>13</v>
@@ -45548,7 +45398,7 @@
         <v>25</v>
       </c>
       <c r="AH216">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI216">
         <v>75</v>
@@ -45608,19 +45458,19 @@
         <v>5.1</v>
       </c>
       <c r="BB216">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="BC216">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BD216">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BE216">
         <v>980</v>
       </c>
       <c r="BF216" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="BG216">
         <v>489720</v>
@@ -45632,16 +45482,16 @@
         <v>58805</v>
       </c>
       <c r="BJ216" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
       <c r="BK216" t="s">
-        <v>782</v>
+        <v>752</v>
       </c>
       <c r="BL216" t="s">
+        <v>792</v>
+      </c>
+      <c r="BM216" t="s">
         <v>832</v>
-      </c>
-      <c r="BM216" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="217" spans="1:65">
@@ -45661,13 +45511,13 @@
         <v>633</v>
       </c>
       <c r="F217">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G217">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="H217">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I217">
         <v>3.85</v>
@@ -45691,7 +45541,7 @@
         <v>2.64</v>
       </c>
       <c r="P217">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="Q217">
         <v>2.14</v>
@@ -45700,124 +45550,124 @@
         <v>1.87</v>
       </c>
       <c r="S217">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="T217">
-        <v>3.55</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U217">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="V217">
+        <v>10</v>
+      </c>
+      <c r="W217">
         <v>11</v>
       </c>
-      <c r="V217">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="W217">
-        <v>13</v>
-      </c>
       <c r="X217">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y217">
+        <v>23</v>
+      </c>
+      <c r="Z217">
+        <v>15</v>
+      </c>
+      <c r="AA217">
+        <v>75</v>
+      </c>
+      <c r="AB217">
+        <v>7.4</v>
+      </c>
+      <c r="AC217">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD217">
+        <v>6.8</v>
+      </c>
+      <c r="AE217">
+        <v>7.2</v>
+      </c>
+      <c r="AF217">
+        <v>14.5</v>
+      </c>
+      <c r="AG217">
+        <v>16</v>
+      </c>
+      <c r="AH217">
+        <v>40</v>
+      </c>
+      <c r="AI217">
+        <v>55</v>
+      </c>
+      <c r="AJ217">
+        <v>12</v>
+      </c>
+      <c r="AK217">
+        <v>13.5</v>
+      </c>
+      <c r="AL217">
+        <v>11</v>
+      </c>
+      <c r="AM217">
+        <v>12</v>
+      </c>
+      <c r="AN217">
+        <v>20</v>
+      </c>
+      <c r="AO217">
+        <v>26</v>
+      </c>
+      <c r="AP217">
+        <v>15</v>
+      </c>
+      <c r="AQ217">
+        <v>85</v>
+      </c>
+      <c r="AR217">
+        <v>25</v>
+      </c>
+      <c r="AS217">
+        <v>34</v>
+      </c>
+      <c r="AT217">
         <v>28</v>
       </c>
-      <c r="Z217">
-        <v>4.8</v>
-      </c>
-      <c r="AA217">
-        <v>85</v>
-      </c>
-      <c r="AB217">
-        <v>3.4</v>
-      </c>
-      <c r="AC217">
-        <v>9.6</v>
-      </c>
-      <c r="AD217">
-        <v>6.2</v>
-      </c>
-      <c r="AE217">
+      <c r="AU217">
+        <v>32</v>
+      </c>
+      <c r="AV217">
+        <v>44</v>
+      </c>
+      <c r="AW217">
+        <v>60</v>
+      </c>
+      <c r="AX217">
+        <v>17</v>
+      </c>
+      <c r="AY217">
+        <v>160</v>
+      </c>
+      <c r="AZ217">
+        <v>23</v>
+      </c>
+      <c r="BA217">
+        <v>32</v>
+      </c>
+      <c r="BB217">
+        <v>14.5</v>
+      </c>
+      <c r="BC217">
+        <v>70</v>
+      </c>
+      <c r="BD217">
         <v>14</v>
       </c>
-      <c r="AF217">
-        <v>13.5</v>
-      </c>
-      <c r="AG217">
-        <v>19.5</v>
-      </c>
-      <c r="AH217">
-        <v>4.7</v>
-      </c>
-      <c r="AI217">
-        <v>65</v>
-      </c>
-      <c r="AJ217">
-        <v>10.5</v>
-      </c>
-      <c r="AK217">
-        <v>16.5</v>
-      </c>
-      <c r="AL217">
-        <v>9.6</v>
-      </c>
-      <c r="AM217">
-        <v>15</v>
-      </c>
-      <c r="AN217">
-        <v>18</v>
-      </c>
-      <c r="AO217">
-        <v>27</v>
-      </c>
-      <c r="AP217">
-        <v>4.8</v>
-      </c>
-      <c r="AQ217">
-        <v>90</v>
-      </c>
-      <c r="AR217">
-        <v>4.7</v>
-      </c>
-      <c r="AS217">
-        <v>42</v>
-      </c>
-      <c r="AT217">
-        <v>4.7</v>
-      </c>
-      <c r="AU217">
-        <v>40</v>
-      </c>
-      <c r="AV217">
-        <v>3.65</v>
-      </c>
-      <c r="AW217">
-        <v>65</v>
-      </c>
-      <c r="AX217">
-        <v>5</v>
-      </c>
-      <c r="AY217">
-        <v>200</v>
-      </c>
-      <c r="AZ217">
-        <v>3.2</v>
-      </c>
-      <c r="BA217">
-        <v>36</v>
-      </c>
-      <c r="BB217">
-        <v>3.1</v>
-      </c>
-      <c r="BC217">
-        <v>75</v>
-      </c>
-      <c r="BD217">
-        <v>3.85</v>
-      </c>
       <c r="BE217">
         <v>1000</v>
       </c>
       <c r="BF217" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="BG217">
         <v>4908158</v>
@@ -45829,16 +45679,16 @@
         <v>58805</v>
       </c>
       <c r="BJ217" t="s">
-        <v>733</v>
+        <v>713</v>
       </c>
       <c r="BK217" t="s">
-        <v>783</v>
+        <v>753</v>
       </c>
       <c r="BL217" t="s">
+        <v>793</v>
+      </c>
+      <c r="BM217" t="s">
         <v>833</v>
-      </c>
-      <c r="BM217" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="218" spans="1:65">
@@ -45858,13 +45708,13 @@
         <v>634</v>
       </c>
       <c r="F218">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="G218">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H218">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="I218">
         <v>2.76</v>
@@ -45876,28 +45726,28 @@
         <v>3.55</v>
       </c>
       <c r="L218">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="M218">
         <v>1.88</v>
       </c>
       <c r="N218">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="O218">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="P218">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="Q218">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R218">
         <v>2.06</v>
       </c>
       <c r="S218">
-        <v>2.46</v>
+        <v>2.22</v>
       </c>
       <c r="T218">
         <v>11</v>
@@ -45978,7 +45828,7 @@
         <v>60</v>
       </c>
       <c r="AT218">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AU218">
         <v>42</v>
@@ -46014,7 +45864,7 @@
         <v>1000</v>
       </c>
       <c r="BF218" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="BG218">
         <v>5129869</v>
@@ -46026,16 +45876,16 @@
         <v>58805</v>
       </c>
       <c r="BJ218" t="s">
-        <v>734</v>
+        <v>714</v>
       </c>
       <c r="BK218" t="s">
-        <v>784</v>
+        <v>754</v>
       </c>
       <c r="BL218" t="s">
+        <v>794</v>
+      </c>
+      <c r="BM218" t="s">
         <v>834</v>
-      </c>
-      <c r="BM218" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="219" spans="1:65">
@@ -46055,16 +45905,16 @@
         <v>635</v>
       </c>
       <c r="F219">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G219">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H219">
         <v>4.2</v>
       </c>
       <c r="I219">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J219">
         <v>3.35</v>
@@ -46088,13 +45938,13 @@
         <v>2.06</v>
       </c>
       <c r="Q219">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R219">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="S219">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="T219">
         <v>9.6</v>
@@ -46151,7 +46001,7 @@
         <v>11</v>
       </c>
       <c r="AL219">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AM219">
         <v>11</v>
@@ -46184,7 +46034,7 @@
         <v>44</v>
       </c>
       <c r="AW219">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AX219">
         <v>80</v>
@@ -46199,19 +46049,19 @@
         <v>21</v>
       </c>
       <c r="BB219">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="BC219">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="BD219">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BE219">
         <v>1000</v>
       </c>
       <c r="BF219" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="BG219">
         <v>36860494</v>
@@ -46223,16 +46073,16 @@
         <v>58805</v>
       </c>
       <c r="BJ219" t="s">
-        <v>735</v>
+        <v>715</v>
       </c>
       <c r="BK219" t="s">
-        <v>785</v>
+        <v>755</v>
       </c>
       <c r="BL219" t="s">
+        <v>795</v>
+      </c>
+      <c r="BM219" t="s">
         <v>835</v>
-      </c>
-      <c r="BM219" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="220" spans="1:65">
@@ -46252,16 +46102,16 @@
         <v>636</v>
       </c>
       <c r="F220">
+        <v>2.34</v>
+      </c>
+      <c r="G220">
         <v>2.38</v>
-      </c>
-      <c r="G220">
-        <v>2.4</v>
       </c>
       <c r="H220">
         <v>3.65</v>
       </c>
       <c r="I220">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J220">
         <v>3.25</v>
@@ -46270,28 +46120,28 @@
         <v>3.3</v>
       </c>
       <c r="L220">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="M220">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="N220">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="O220">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="P220">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q220">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R220">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S220">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="T220">
         <v>9</v>
@@ -46300,7 +46150,7 @@
         <v>9.4</v>
       </c>
       <c r="V220">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="W220">
         <v>11</v>
@@ -46318,10 +46168,10 @@
         <v>75</v>
       </c>
       <c r="AB220">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC220">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD220">
         <v>6.8</v>
@@ -46333,13 +46183,13 @@
         <v>14.5</v>
       </c>
       <c r="AG220">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH220">
         <v>46</v>
       </c>
       <c r="AI220">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ220">
         <v>12</v>
@@ -46360,7 +46210,7 @@
         <v>22</v>
       </c>
       <c r="AP220">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AQ220">
         <v>75</v>
@@ -46372,10 +46222,10 @@
         <v>32</v>
       </c>
       <c r="AT220">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AU220">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AV220">
         <v>48</v>
@@ -46384,13 +46234,13 @@
         <v>55</v>
       </c>
       <c r="AX220">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AY220">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AZ220">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA220">
         <v>28</v>
@@ -46402,13 +46252,13 @@
         <v>65</v>
       </c>
       <c r="BD220">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="BE220">
         <v>1000</v>
       </c>
       <c r="BF220" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="BG220">
         <v>22498185</v>
@@ -46420,16 +46270,16 @@
         <v>58805</v>
       </c>
       <c r="BJ220" t="s">
-        <v>736</v>
+        <v>716</v>
       </c>
       <c r="BK220" t="s">
-        <v>786</v>
+        <v>756</v>
       </c>
       <c r="BL220" t="s">
+        <v>796</v>
+      </c>
+      <c r="BM220" t="s">
         <v>836</v>
-      </c>
-      <c r="BM220" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="221" spans="1:65">
@@ -46455,13 +46305,13 @@
         <v>3.1</v>
       </c>
       <c r="H221">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="I221">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="J221">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K221">
         <v>3.4</v>
@@ -46470,10 +46320,10 @@
         <v>1.76</v>
       </c>
       <c r="M221">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="N221">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="O221">
         <v>2.32</v>
@@ -46482,7 +46332,7 @@
         <v>1.92</v>
       </c>
       <c r="Q221">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R221">
         <v>2</v>
@@ -46497,7 +46347,7 @@
         <v>11</v>
       </c>
       <c r="V221">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="W221">
         <v>10</v>
@@ -46509,13 +46359,13 @@
         <v>20</v>
       </c>
       <c r="Z221">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AA221">
         <v>48</v>
       </c>
       <c r="AB221">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC221">
         <v>11</v>
@@ -46530,10 +46380,10 @@
         <v>9.4</v>
       </c>
       <c r="AG221">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH221">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="AI221">
         <v>38</v>
@@ -46548,16 +46398,16 @@
         <v>11.5</v>
       </c>
       <c r="AM221">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AN221">
-        <v>5.3</v>
+        <v>17</v>
       </c>
       <c r="AO221">
         <v>24</v>
       </c>
       <c r="AP221">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AQ221">
         <v>60</v>
@@ -46575,37 +46425,37 @@
         <v>40</v>
       </c>
       <c r="AV221">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AW221">
         <v>65</v>
       </c>
       <c r="AX221">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AY221">
         <v>980</v>
       </c>
       <c r="AZ221">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="BA221">
         <v>46</v>
       </c>
       <c r="BB221">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="BC221">
         <v>36</v>
       </c>
       <c r="BD221">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="BE221">
         <v>1000</v>
       </c>
       <c r="BF221" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="BG221">
         <v>5336581</v>
@@ -46617,16 +46467,16 @@
         <v>58805</v>
       </c>
       <c r="BJ221" t="s">
-        <v>737</v>
+        <v>717</v>
       </c>
       <c r="BK221" t="s">
-        <v>787</v>
+        <v>757</v>
       </c>
       <c r="BL221" t="s">
+        <v>797</v>
+      </c>
+      <c r="BM221" t="s">
         <v>837</v>
-      </c>
-      <c r="BM221" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="222" spans="1:65">
@@ -46676,16 +46526,16 @@
         <v>3.05</v>
       </c>
       <c r="P222">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="Q222">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="R222">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="S222">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="T222">
         <v>3.85</v>
@@ -46778,7 +46628,7 @@
         <v>1000</v>
       </c>
       <c r="AX222">
-        <v>9.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="AY222">
         <v>1000</v>
@@ -46802,7 +46652,7 @@
         <v>1000</v>
       </c>
       <c r="BF222" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="BG222">
         <v>7210009</v>
@@ -46814,16 +46664,16 @@
         <v>58805</v>
       </c>
       <c r="BJ222" t="s">
-        <v>738</v>
+        <v>718</v>
       </c>
       <c r="BK222" t="s">
-        <v>788</v>
+        <v>758</v>
       </c>
       <c r="BL222" t="s">
+        <v>798</v>
+      </c>
+      <c r="BM222" t="s">
         <v>838</v>
-      </c>
-      <c r="BM222" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="223" spans="1:65">
@@ -46849,52 +46699,52 @@
         <v>2.26</v>
       </c>
       <c r="H223">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I223">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J223">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K223">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L223">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="M223">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="N223">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="O223">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="P223">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="Q223">
-        <v>980</v>
+        <v>2.22</v>
       </c>
       <c r="R223">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="S223">
-        <v>980</v>
+        <v>2.12</v>
       </c>
       <c r="T223">
         <v>1.01</v>
       </c>
       <c r="U223">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="V223">
         <v>1.01</v>
       </c>
       <c r="W223">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="X223">
         <v>1.01</v>
@@ -46909,19 +46759,19 @@
         <v>1000</v>
       </c>
       <c r="AB223">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AC223">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD223">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AE223">
         <v>8.6</v>
       </c>
       <c r="AF223">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AG223">
         <v>1000</v>
@@ -46933,10 +46783,10 @@
         <v>1000</v>
       </c>
       <c r="AJ223">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AK223">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AL223">
         <v>1.03</v>
@@ -46945,7 +46795,7 @@
         <v>12.5</v>
       </c>
       <c r="AN223">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AO223">
         <v>1000</v>
@@ -46999,7 +46849,7 @@
         <v>1000</v>
       </c>
       <c r="BF223" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="BG223">
         <v>198125</v>
@@ -47011,16 +46861,16 @@
         <v>58805</v>
       </c>
       <c r="BJ223" t="s">
-        <v>739</v>
+        <v>719</v>
       </c>
       <c r="BK223" t="s">
-        <v>789</v>
+        <v>759</v>
       </c>
       <c r="BL223" t="s">
+        <v>799</v>
+      </c>
+      <c r="BM223" t="s">
         <v>839</v>
-      </c>
-      <c r="BM223" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="224" spans="1:65">
@@ -47046,10 +46896,10 @@
         <v>1.3</v>
       </c>
       <c r="H224">
+        <v>12.5</v>
+      </c>
+      <c r="I224">
         <v>13.5</v>
-      </c>
-      <c r="I224">
-        <v>14</v>
       </c>
       <c r="J224">
         <v>6.6</v>
@@ -47058,106 +46908,106 @@
         <v>7</v>
       </c>
       <c r="L224">
+        <v>2.68</v>
+      </c>
+      <c r="M224">
         <v>2.78</v>
       </c>
-      <c r="M224">
-        <v>2.88</v>
-      </c>
       <c r="N224">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="O224">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="P224">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q224">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R224">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="S224">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="T224">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U224">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="V224">
         <v>38</v>
       </c>
       <c r="W224">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="X224">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Y224">
         <v>130</v>
       </c>
       <c r="Z224">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AA224">
-        <v>640</v>
+        <v>550</v>
       </c>
       <c r="AB224">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC224">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD224">
         <v>13.5</v>
       </c>
       <c r="AE224">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF224">
         <v>38</v>
       </c>
       <c r="AG224">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AH224">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AI224">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AJ224">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AK224">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AL224">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AM224">
         <v>10.5</v>
       </c>
       <c r="AN224">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AO224">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AP224">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AQ224">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AR224">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AS224">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AT224">
         <v>12</v>
@@ -47172,31 +47022,31 @@
         <v>34</v>
       </c>
       <c r="AX224">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="AY224">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AZ224">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="BA224">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="BB224">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="BC224">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="BD224">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BE224">
         <v>1000</v>
       </c>
       <c r="BF224" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="BG224">
         <v>52495073</v>
@@ -47208,16 +47058,16 @@
         <v>58805</v>
       </c>
       <c r="BJ224" t="s">
-        <v>740</v>
+        <v>720</v>
       </c>
       <c r="BK224" t="s">
-        <v>790</v>
+        <v>760</v>
       </c>
       <c r="BL224" t="s">
+        <v>800</v>
+      </c>
+      <c r="BM224" t="s">
         <v>840</v>
-      </c>
-      <c r="BM224" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="225" spans="1:65">
@@ -47237,97 +47087,97 @@
         <v>641</v>
       </c>
       <c r="F225">
+        <v>2.48</v>
+      </c>
+      <c r="G225">
+        <v>2.68</v>
+      </c>
+      <c r="H225">
+        <v>3.25</v>
+      </c>
+      <c r="I225">
+        <v>3.6</v>
+      </c>
+      <c r="J225">
+        <v>3</v>
+      </c>
+      <c r="K225">
+        <v>3.25</v>
+      </c>
+      <c r="L225">
+        <v>1.6</v>
+      </c>
+      <c r="M225">
+        <v>1.68</v>
+      </c>
+      <c r="N225">
         <v>2.46</v>
       </c>
-      <c r="G225">
-        <v>2.62</v>
-      </c>
-      <c r="H225">
-        <v>3.15</v>
-      </c>
-      <c r="I225">
-        <v>3.5</v>
-      </c>
-      <c r="J225">
-        <v>3.1</v>
-      </c>
-      <c r="K225">
-        <v>3.4</v>
-      </c>
-      <c r="L225">
-        <v>1.68</v>
-      </c>
-      <c r="M225">
-        <v>1.75</v>
-      </c>
-      <c r="N225">
-        <v>2.34</v>
-      </c>
       <c r="O225">
-        <v>2.46</v>
+        <v>2.68</v>
       </c>
       <c r="P225">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="Q225">
-        <v>110</v>
+        <v>2.3</v>
       </c>
       <c r="R225">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="S225">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="T225">
-        <v>3.85</v>
+        <v>8</v>
       </c>
       <c r="U225">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V225">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="W225">
+        <v>11.5</v>
+      </c>
+      <c r="X225">
+        <v>5.4</v>
+      </c>
+      <c r="Y225">
+        <v>24</v>
+      </c>
+      <c r="Z225">
+        <v>6</v>
+      </c>
+      <c r="AA225">
+        <v>70</v>
+      </c>
+      <c r="AB225">
+        <v>7.4</v>
+      </c>
+      <c r="AC225">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD225">
+        <v>6.4</v>
+      </c>
+      <c r="AE225">
+        <v>8</v>
+      </c>
+      <c r="AF225">
+        <v>12.5</v>
+      </c>
+      <c r="AG225">
+        <v>17</v>
+      </c>
+      <c r="AH225">
+        <v>6</v>
+      </c>
+      <c r="AI225">
+        <v>55</v>
+      </c>
+      <c r="AJ225">
         <v>12</v>
-      </c>
-      <c r="X225">
-        <v>4.6</v>
-      </c>
-      <c r="Y225">
-        <v>23</v>
-      </c>
-      <c r="Z225">
-        <v>5.3</v>
-      </c>
-      <c r="AA225">
-        <v>60</v>
-      </c>
-      <c r="AB225">
-        <v>3.65</v>
-      </c>
-      <c r="AC225">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD225">
-        <v>6.6</v>
-      </c>
-      <c r="AE225">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AF225">
-        <v>11.5</v>
-      </c>
-      <c r="AG225">
-        <v>15.5</v>
-      </c>
-      <c r="AH225">
-        <v>5.8</v>
-      </c>
-      <c r="AI225">
-        <v>1000</v>
-      </c>
-      <c r="AJ225">
-        <v>12.5</v>
       </c>
       <c r="AK225">
         <v>16.5</v>
@@ -47336,64 +47186,64 @@
         <v>10</v>
       </c>
       <c r="AM225">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AN225">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AO225">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AP225">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="AQ225">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AR225">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="AS225">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AT225">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="AU225">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AV225">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="AW225">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AX225">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="AY225">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AZ225">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="BA225">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="BB225">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="BC225">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="BD225">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="BE225">
         <v>1000</v>
       </c>
       <c r="BF225" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="BG225">
         <v>16192656</v>
@@ -47405,16 +47255,16 @@
         <v>58805</v>
       </c>
       <c r="BJ225" t="s">
-        <v>741</v>
+        <v>721</v>
       </c>
       <c r="BK225" t="s">
-        <v>791</v>
+        <v>761</v>
       </c>
       <c r="BL225" t="s">
+        <v>801</v>
+      </c>
+      <c r="BM225" t="s">
         <v>841</v>
-      </c>
-      <c r="BM225" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="226" spans="1:65">
@@ -47434,7 +47284,7 @@
         <v>642</v>
       </c>
       <c r="F226">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="G226">
         <v>3.65</v>
@@ -47473,7 +47323,7 @@
         <v>1.72</v>
       </c>
       <c r="S226">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="T226">
         <v>7.6</v>
@@ -47530,7 +47380,7 @@
         <v>980</v>
       </c>
       <c r="AL226">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AM226">
         <v>17</v>
@@ -47590,7 +47440,7 @@
         <v>1000</v>
       </c>
       <c r="BF226" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="BG226">
         <v>204603</v>
@@ -47602,16 +47452,16 @@
         <v>58805</v>
       </c>
       <c r="BJ226" t="s">
-        <v>742</v>
+        <v>722</v>
       </c>
       <c r="BK226" t="s">
-        <v>792</v>
+        <v>762</v>
       </c>
       <c r="BL226" t="s">
+        <v>802</v>
+      </c>
+      <c r="BM226" t="s">
         <v>842</v>
-      </c>
-      <c r="BM226" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="227" spans="1:65">
@@ -47637,13 +47487,13 @@
         <v>1.73</v>
       </c>
       <c r="H227">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I227">
         <v>6.4</v>
       </c>
       <c r="J227">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K227">
         <v>4.2</v>
@@ -47652,10 +47502,10 @@
         <v>1.92</v>
       </c>
       <c r="M227">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="N227">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="O227">
         <v>2.08</v>
@@ -47673,7 +47523,7 @@
         <v>2.08</v>
       </c>
       <c r="T227">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="U227">
         <v>15</v>
@@ -47691,7 +47541,7 @@
         <v>48</v>
       </c>
       <c r="Z227">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AA227">
         <v>1000</v>
@@ -47715,13 +47565,13 @@
         <v>980</v>
       </c>
       <c r="AH227">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AI227">
         <v>90</v>
       </c>
       <c r="AJ227">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AK227">
         <v>10.5</v>
@@ -47739,7 +47589,7 @@
         <v>980</v>
       </c>
       <c r="AP227">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AQ227">
         <v>95</v>
@@ -47754,16 +47604,16 @@
         <v>15.5</v>
       </c>
       <c r="AU227">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV227">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AW227">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AX227">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AY227">
         <v>1000</v>
@@ -47781,13 +47631,13 @@
         <v>120</v>
       </c>
       <c r="BD227">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="BE227">
         <v>1000</v>
       </c>
       <c r="BF227" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="BG227">
         <v>328690</v>
@@ -47799,16 +47649,16 @@
         <v>58805</v>
       </c>
       <c r="BJ227" t="s">
-        <v>743</v>
+        <v>723</v>
       </c>
       <c r="BK227" t="s">
-        <v>793</v>
+        <v>763</v>
       </c>
       <c r="BL227" t="s">
+        <v>803</v>
+      </c>
+      <c r="BM227" t="s">
         <v>843</v>
-      </c>
-      <c r="BM227" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="228" spans="1:65">
@@ -47828,10 +47678,10 @@
         <v>644</v>
       </c>
       <c r="F228">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="G228">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="H228">
         <v>3.3</v>
@@ -47843,148 +47693,148 @@
         <v>2.76</v>
       </c>
       <c r="K228">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="L228">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M228">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="N228">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="O228">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="P228">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q228">
         <v>2.4</v>
       </c>
       <c r="R228">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="S228">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="T228">
         <v>3.35</v>
       </c>
       <c r="U228">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="V228">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="W228">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="X228">
-        <v>1.78</v>
+        <v>3.75</v>
       </c>
       <c r="Y228">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Z228">
-        <v>1.74</v>
+        <v>4.1</v>
       </c>
       <c r="AA228">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AB228">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AC228">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD228">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AE228">
         <v>8.4</v>
       </c>
       <c r="AF228">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AG228">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH228">
-        <v>1.74</v>
+        <v>4.1</v>
       </c>
       <c r="AI228">
         <v>70</v>
       </c>
       <c r="AJ228">
+        <v>3.55</v>
+      </c>
+      <c r="AK228">
+        <v>18</v>
+      </c>
+      <c r="AL228">
         <v>3.45</v>
       </c>
-      <c r="AK228">
-        <v>17.5</v>
-      </c>
-      <c r="AL228">
-        <v>3.4</v>
-      </c>
       <c r="AM228">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AN228">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="AO228">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP228">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="AQ228">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AR228">
-        <v>1.72</v>
+        <v>4</v>
       </c>
       <c r="AS228">
+        <v>50</v>
+      </c>
+      <c r="AT228">
+        <v>4.8</v>
+      </c>
+      <c r="AU228">
         <v>48</v>
       </c>
-      <c r="AT228">
-        <v>1.71</v>
-      </c>
-      <c r="AU228">
-        <v>46</v>
-      </c>
       <c r="AV228">
-        <v>1.74</v>
+        <v>4.1</v>
       </c>
       <c r="AW228">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AX228">
-        <v>1.77</v>
+        <v>4.3</v>
       </c>
       <c r="AY228">
         <v>1000</v>
       </c>
       <c r="AZ228">
-        <v>1.72</v>
+        <v>4</v>
       </c>
       <c r="BA228">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BB228">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="BC228">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="BD228">
-        <v>1.78</v>
+        <v>4.3</v>
       </c>
       <c r="BE228">
         <v>1000</v>
       </c>
       <c r="BF228" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="BG228">
         <v>39170146</v>
@@ -47996,16 +47846,16 @@
         <v>58805</v>
       </c>
       <c r="BJ228" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="BK228" t="s">
-        <v>794</v>
+        <v>764</v>
       </c>
       <c r="BL228" t="s">
+        <v>804</v>
+      </c>
+      <c r="BM228" t="s">
         <v>844</v>
-      </c>
-      <c r="BM228" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="229" spans="1:65">
@@ -48046,16 +47896,16 @@
         <v>2.18</v>
       </c>
       <c r="M229">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="N229">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="O229">
         <v>1.85</v>
       </c>
       <c r="P229">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="Q229">
         <v>1.93</v>
@@ -48064,7 +47914,7 @@
         <v>2.08</v>
       </c>
       <c r="S229">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="T229">
         <v>12.5</v>
@@ -48151,7 +48001,7 @@
         <v>22</v>
       </c>
       <c r="AV229">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AW229">
         <v>40</v>
@@ -48181,7 +48031,7 @@
         <v>1000</v>
       </c>
       <c r="BF229" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="BG229">
         <v>1388376</v>
@@ -48193,16 +48043,16 @@
         <v>58805</v>
       </c>
       <c r="BJ229" t="s">
-        <v>745</v>
+        <v>725</v>
       </c>
       <c r="BK229" t="s">
-        <v>795</v>
+        <v>765</v>
       </c>
       <c r="BL229" t="s">
+        <v>805</v>
+      </c>
+      <c r="BM229" t="s">
         <v>845</v>
-      </c>
-      <c r="BM229" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="230" spans="1:65">
@@ -48225,10 +48075,10 @@
         <v>2.8</v>
       </c>
       <c r="G230">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="H230">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="I230">
         <v>3.05</v>
@@ -48237,28 +48087,28 @@
         <v>3.15</v>
       </c>
       <c r="K230">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L230">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="M230">
         <v>1.61</v>
       </c>
       <c r="N230">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="O230">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="P230">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q230">
         <v>2.22</v>
       </c>
       <c r="R230">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="S230">
         <v>1.93</v>
@@ -48267,19 +48117,19 @@
         <v>8</v>
       </c>
       <c r="U230">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="V230">
         <v>8.6</v>
       </c>
       <c r="W230">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="X230">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y230">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z230">
         <v>46</v>
@@ -48288,7 +48138,7 @@
         <v>55</v>
       </c>
       <c r="AB230">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AC230">
         <v>8.6</v>
@@ -48321,7 +48171,7 @@
         <v>12.5</v>
       </c>
       <c r="AM230">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AN230">
         <v>21</v>
@@ -48336,7 +48186,7 @@
         <v>70</v>
       </c>
       <c r="AR230">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AS230">
         <v>46</v>
@@ -48351,7 +48201,7 @@
         <v>55</v>
       </c>
       <c r="AW230">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AX230">
         <v>22</v>
@@ -48360,25 +48210,25 @@
         <v>170</v>
       </c>
       <c r="AZ230">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="BA230">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="BB230">
         <v>38</v>
       </c>
       <c r="BC230">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BD230">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BE230">
         <v>1000</v>
       </c>
       <c r="BF230" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="BG230">
         <v>5326988</v>
@@ -48390,16 +48240,16 @@
         <v>58805</v>
       </c>
       <c r="BJ230" t="s">
-        <v>746</v>
+        <v>726</v>
       </c>
       <c r="BK230" t="s">
-        <v>796</v>
+        <v>766</v>
       </c>
       <c r="BL230" t="s">
+        <v>806</v>
+      </c>
+      <c r="BM230" t="s">
         <v>846</v>
-      </c>
-      <c r="BM230" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="231" spans="1:65">
@@ -48419,19 +48269,19 @@
         <v>647</v>
       </c>
       <c r="F231">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="G231">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H231">
         <v>5.6</v>
       </c>
       <c r="I231">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J231">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K231">
         <v>3.9</v>
@@ -48440,13 +48290,13 @@
         <v>1.7</v>
       </c>
       <c r="M231">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="N231">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="O231">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="P231">
         <v>2.18</v>
@@ -48461,13 +48311,13 @@
         <v>1.84</v>
       </c>
       <c r="T231">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="U231">
         <v>10.5</v>
       </c>
       <c r="V231">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="W231">
         <v>16</v>
@@ -48479,7 +48329,7 @@
         <v>42</v>
       </c>
       <c r="Z231">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA231">
         <v>170</v>
@@ -48503,10 +48353,10 @@
         <v>23</v>
       </c>
       <c r="AH231">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AI231">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ231">
         <v>8.6</v>
@@ -48527,7 +48377,7 @@
         <v>26</v>
       </c>
       <c r="AP231">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AQ231">
         <v>120</v>
@@ -48551,31 +48401,31 @@
         <v>50</v>
       </c>
       <c r="AX231">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AY231">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AZ231">
         <v>14</v>
       </c>
       <c r="BA231">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="BB231">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BC231">
         <v>160</v>
       </c>
       <c r="BD231">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BE231">
         <v>1000</v>
       </c>
       <c r="BF231" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="BG231">
         <v>198128</v>
@@ -48587,16 +48437,16 @@
         <v>58805</v>
       </c>
       <c r="BJ231" t="s">
-        <v>747</v>
+        <v>727</v>
       </c>
       <c r="BK231" t="s">
-        <v>797</v>
+        <v>767</v>
       </c>
       <c r="BL231" t="s">
+        <v>807</v>
+      </c>
+      <c r="BM231" t="s">
         <v>847</v>
-      </c>
-      <c r="BM231" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="232" spans="1:65">
@@ -48616,13 +48466,13 @@
         <v>648</v>
       </c>
       <c r="F232">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G232">
         <v>3.6</v>
       </c>
       <c r="H232">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="I232">
         <v>2.88</v>
@@ -48631,106 +48481,106 @@
         <v>3.05</v>
       </c>
       <c r="K232">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L232">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="M232">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="N232">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="O232">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="P232">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Q232">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R232">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="S232">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="T232">
+        <v>7.4</v>
+      </c>
+      <c r="U232">
+        <v>10</v>
+      </c>
+      <c r="V232">
         <v>4.1</v>
       </c>
-      <c r="U232">
-        <v>10.5</v>
-      </c>
-      <c r="V232">
-        <v>4</v>
-      </c>
       <c r="W232">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="X232">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="Y232">
         <v>17</v>
       </c>
       <c r="Z232">
-        <v>3.55</v>
+        <v>6</v>
       </c>
       <c r="AA232">
         <v>44</v>
       </c>
       <c r="AB232">
-        <v>4.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC232">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD232">
-        <v>3.65</v>
+        <v>6.2</v>
       </c>
       <c r="AE232">
         <v>8</v>
       </c>
       <c r="AF232">
-        <v>4.6</v>
+        <v>10.5</v>
       </c>
       <c r="AG232">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH232">
-        <v>3.75</v>
+        <v>5.9</v>
       </c>
       <c r="AI232">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ232">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AK232">
         <v>22</v>
       </c>
       <c r="AL232">
-        <v>4.8</v>
+        <v>12</v>
       </c>
       <c r="AM232">
         <v>16.5</v>
       </c>
       <c r="AN232">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AO232">
         <v>24</v>
       </c>
       <c r="AP232">
-        <v>2.36</v>
+        <v>6.2</v>
       </c>
       <c r="AQ232">
         <v>65</v>
       </c>
       <c r="AR232">
-        <v>3.95</v>
+        <v>6.2</v>
       </c>
       <c r="AS232">
         <v>65</v>
@@ -48739,40 +48589,40 @@
         <v>6</v>
       </c>
       <c r="AU232">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AV232">
-        <v>2.46</v>
+        <v>6.4</v>
       </c>
       <c r="AW232">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AX232">
-        <v>2.46</v>
+        <v>6.6</v>
       </c>
       <c r="AY232">
         <v>1000</v>
       </c>
       <c r="AZ232">
-        <v>1.55</v>
+        <v>6.2</v>
       </c>
       <c r="BA232">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB232">
-        <v>1.55</v>
+        <v>5.9</v>
       </c>
       <c r="BC232">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="BD232">
-        <v>1.59</v>
+        <v>7</v>
       </c>
       <c r="BE232">
         <v>1000</v>
       </c>
       <c r="BF232" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="BG232">
         <v>14754815</v>
@@ -48784,16 +48634,16 @@
         <v>58805</v>
       </c>
       <c r="BJ232" t="s">
-        <v>748</v>
+        <v>728</v>
       </c>
       <c r="BK232" t="s">
-        <v>798</v>
+        <v>768</v>
       </c>
       <c r="BL232" t="s">
+        <v>808</v>
+      </c>
+      <c r="BM232" t="s">
         <v>848</v>
-      </c>
-      <c r="BM232" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="233" spans="1:65">
@@ -48822,7 +48672,7 @@
         <v>3.6</v>
       </c>
       <c r="I233">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J233">
         <v>3.8</v>
@@ -48831,19 +48681,19 @@
         <v>3.85</v>
       </c>
       <c r="L233">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="M233">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="N233">
         <v>1.75</v>
       </c>
       <c r="O233">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="P233">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q233">
         <v>1.75</v>
@@ -48852,7 +48702,7 @@
         <v>2.34</v>
       </c>
       <c r="S233">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="T233">
         <v>16</v>
@@ -48861,10 +48711,10 @@
         <v>17.5</v>
       </c>
       <c r="V233">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="W233">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="X233">
         <v>24</v>
@@ -48879,13 +48729,13 @@
         <v>65</v>
       </c>
       <c r="AB233">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC233">
         <v>12</v>
       </c>
       <c r="AD233">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE233">
         <v>8.6</v>
@@ -48909,7 +48759,7 @@
         <v>14.5</v>
       </c>
       <c r="AL233">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AM233">
         <v>10.5</v>
@@ -48918,7 +48768,7 @@
         <v>15</v>
       </c>
       <c r="AO233">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AP233">
         <v>38</v>
@@ -48957,19 +48807,19 @@
         <v>13</v>
       </c>
       <c r="BB233">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC233">
         <v>32</v>
       </c>
       <c r="BD233">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BE233">
         <v>980</v>
       </c>
       <c r="BF233" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="BG233">
         <v>42741188</v>
@@ -48981,16 +48831,16 @@
         <v>58805</v>
       </c>
       <c r="BJ233" t="s">
-        <v>749</v>
+        <v>729</v>
       </c>
       <c r="BK233" t="s">
-        <v>799</v>
+        <v>769</v>
       </c>
       <c r="BL233" t="s">
+        <v>809</v>
+      </c>
+      <c r="BM233" t="s">
         <v>849</v>
-      </c>
-      <c r="BM233" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="234" spans="1:65">
@@ -49013,7 +48863,7 @@
         <v>2.38</v>
       </c>
       <c r="G234">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="H234">
         <v>3.6</v>
@@ -49028,7 +48878,7 @@
         <v>3.35</v>
       </c>
       <c r="L234">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="M234">
         <v>1.7</v>
@@ -49037,10 +48887,10 @@
         <v>2.42</v>
       </c>
       <c r="O234">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="P234">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="Q234">
         <v>2.18</v>
@@ -49049,7 +48899,7 @@
         <v>1.85</v>
       </c>
       <c r="S234">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="T234">
         <v>7.2</v>
@@ -49064,19 +48914,19 @@
         <v>13.5</v>
       </c>
       <c r="X234">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y234">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z234">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AA234">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB234">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AC234">
         <v>10</v>
@@ -49091,13 +48941,13 @@
         <v>11.5</v>
       </c>
       <c r="AG234">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH234">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AI234">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ234">
         <v>10</v>
@@ -49106,7 +48956,7 @@
         <v>16.5</v>
       </c>
       <c r="AL234">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AM234">
         <v>14.5</v>
@@ -49115,58 +48965,58 @@
         <v>15.5</v>
       </c>
       <c r="AO234">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP234">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AQ234">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AR234">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="AS234">
         <v>40</v>
       </c>
       <c r="AT234">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="AU234">
         <v>36</v>
       </c>
       <c r="AV234">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AW234">
         <v>1000</v>
       </c>
       <c r="AX234">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AY234">
         <v>1000</v>
       </c>
       <c r="AZ234">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="BA234">
         <v>34</v>
       </c>
       <c r="BB234">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="BC234">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BD234">
-        <v>1.48</v>
+        <v>1.64</v>
       </c>
       <c r="BE234">
         <v>1000</v>
       </c>
       <c r="BF234" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="BG234">
         <v>1067444</v>
@@ -49178,16 +49028,16 @@
         <v>58805</v>
       </c>
       <c r="BJ234" t="s">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="BK234" t="s">
-        <v>800</v>
+        <v>770</v>
       </c>
       <c r="BL234" t="s">
+        <v>810</v>
+      </c>
+      <c r="BM234" t="s">
         <v>850</v>
-      </c>
-      <c r="BM234" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="235" spans="1:65">
@@ -49207,7 +49057,7 @@
         <v>651</v>
       </c>
       <c r="F235">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="G235">
         <v>2.56</v>
@@ -49291,7 +49141,7 @@
         <v>17</v>
       </c>
       <c r="AH235">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="AI235">
         <v>980</v>
@@ -49321,13 +49171,13 @@
         <v>980</v>
       </c>
       <c r="AR235">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="AS235">
         <v>980</v>
       </c>
       <c r="AT235">
-        <v>3.9</v>
+        <v>23</v>
       </c>
       <c r="AU235">
         <v>34</v>
@@ -49363,7 +49213,7 @@
         <v>1000</v>
       </c>
       <c r="BF235" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="BG235">
         <v>5913012</v>
@@ -49375,16 +49225,16 @@
         <v>58805</v>
       </c>
       <c r="BJ235" t="s">
-        <v>751</v>
+        <v>731</v>
       </c>
       <c r="BK235" t="s">
-        <v>801</v>
+        <v>771</v>
       </c>
       <c r="BL235" t="s">
+        <v>811</v>
+      </c>
+      <c r="BM235" t="s">
         <v>851</v>
-      </c>
-      <c r="BM235" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="236" spans="1:65">
@@ -49413,7 +49263,7 @@
         <v>7.4</v>
       </c>
       <c r="I236">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="J236">
         <v>4.7</v>
@@ -49422,28 +49272,28 @@
         <v>5.4</v>
       </c>
       <c r="L236">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="M236">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="N236">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="O236">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="P236">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="Q236">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R236">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="S236">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T236">
         <v>15</v>
@@ -49452,28 +49302,28 @@
         <v>21</v>
       </c>
       <c r="V236">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="W236">
         <v>28</v>
       </c>
       <c r="X236">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Y236">
         <v>75</v>
       </c>
       <c r="Z236">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AA236">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="AB236">
         <v>8</v>
       </c>
       <c r="AC236">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD236">
         <v>9</v>
@@ -49482,16 +49332,16 @@
         <v>12</v>
       </c>
       <c r="AF236">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AG236">
         <v>32</v>
       </c>
       <c r="AH236">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AI236">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AJ236">
         <v>8</v>
@@ -49509,19 +49359,19 @@
         <v>19.5</v>
       </c>
       <c r="AO236">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AP236">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AQ236">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AR236">
         <v>11</v>
       </c>
       <c r="AS236">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AT236">
         <v>12.5</v>
@@ -49530,37 +49380,37 @@
         <v>16.5</v>
       </c>
       <c r="AV236">
-        <v>6.8</v>
+        <v>26</v>
       </c>
       <c r="AW236">
         <v>36</v>
       </c>
       <c r="AX236">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AY236">
         <v>140</v>
       </c>
       <c r="AZ236">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="BA236">
         <v>6.8</v>
       </c>
       <c r="BB236">
-        <v>2.98</v>
+        <v>4</v>
       </c>
       <c r="BC236">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BD236">
-        <v>3.05</v>
+        <v>4.1</v>
       </c>
       <c r="BE236">
         <v>1000</v>
       </c>
       <c r="BF236" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="BG236">
         <v>328204</v>
@@ -49572,16 +49422,16 @@
         <v>58805</v>
       </c>
       <c r="BJ236" t="s">
-        <v>752</v>
+        <v>732</v>
       </c>
       <c r="BK236" t="s">
-        <v>802</v>
+        <v>772</v>
       </c>
       <c r="BL236" t="s">
+        <v>812</v>
+      </c>
+      <c r="BM236" t="s">
         <v>852</v>
-      </c>
-      <c r="BM236" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="237" spans="1:65">
@@ -49604,7 +49454,7 @@
         <v>1.53</v>
       </c>
       <c r="G237">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="H237">
         <v>6.4</v>
@@ -49619,7 +49469,7 @@
         <v>5.3</v>
       </c>
       <c r="L237">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="M237">
         <v>3.35</v>
@@ -49628,7 +49478,7 @@
         <v>1.43</v>
       </c>
       <c r="O237">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P237">
         <v>1.58</v>
@@ -49640,7 +49490,7 @@
         <v>2.6</v>
       </c>
       <c r="S237">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T237">
         <v>28</v>
@@ -49661,7 +49511,7 @@
         <v>65</v>
       </c>
       <c r="Z237">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AA237">
         <v>150</v>
@@ -49691,7 +49541,7 @@
         <v>70</v>
       </c>
       <c r="AJ237">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK237">
         <v>13</v>
@@ -49757,7 +49607,7 @@
         <v>980</v>
       </c>
       <c r="BF237" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="BG237">
         <v>2658589</v>
@@ -49769,16 +49619,16 @@
         <v>58805</v>
       </c>
       <c r="BJ237" t="s">
-        <v>753</v>
+        <v>733</v>
       </c>
       <c r="BK237" t="s">
-        <v>803</v>
+        <v>773</v>
       </c>
       <c r="BL237" t="s">
+        <v>813</v>
+      </c>
+      <c r="BM237" t="s">
         <v>853</v>
-      </c>
-      <c r="BM237" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="238" spans="1:65">
@@ -49798,7 +49648,7 @@
         <v>654</v>
       </c>
       <c r="F238">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="G238">
         <v>1.5</v>
@@ -49810,22 +49660,22 @@
         <v>12.5</v>
       </c>
       <c r="J238">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K238">
         <v>4.9</v>
       </c>
       <c r="L238">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="M238">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="N238">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="O238">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="P238">
         <v>2.2</v>
@@ -49846,19 +49696,19 @@
         <v>13</v>
       </c>
       <c r="V238">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="W238">
         <v>29</v>
       </c>
       <c r="X238">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y238">
         <v>100</v>
       </c>
       <c r="Z238">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AA238">
         <v>1000</v>
@@ -49885,7 +49735,7 @@
         <v>4.9</v>
       </c>
       <c r="AI238">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AJ238">
         <v>6.2</v>
@@ -49900,7 +49750,7 @@
         <v>13</v>
       </c>
       <c r="AN238">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AO238">
         <v>42</v>
@@ -49909,7 +49759,7 @@
         <v>4.9</v>
       </c>
       <c r="AQ238">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AR238">
         <v>10</v>
@@ -49927,22 +49777,22 @@
         <v>4.6</v>
       </c>
       <c r="AW238">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AX238">
         <v>4.9</v>
       </c>
       <c r="AY238">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AZ238">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="BA238">
         <v>11.5</v>
       </c>
       <c r="BB238">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="BC238">
         <v>1000</v>
@@ -49954,7 +49804,7 @@
         <v>1000</v>
       </c>
       <c r="BF238" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="BG238">
         <v>2277370</v>
@@ -49966,16 +49816,16 @@
         <v>58805</v>
       </c>
       <c r="BJ238" t="s">
-        <v>754</v>
+        <v>734</v>
       </c>
       <c r="BK238" t="s">
-        <v>804</v>
+        <v>774</v>
       </c>
       <c r="BL238" t="s">
+        <v>814</v>
+      </c>
+      <c r="BM238" t="s">
         <v>854</v>
-      </c>
-      <c r="BM238" t="s">
-        <v>904</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-21.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="740">
   <si>
     <t>League</t>
   </si>
@@ -1981,75 +1981,6 @@
     <t>Boyaca Patriotas</t>
   </si>
   <si>
-    <t>33203437</t>
-  </si>
-  <si>
-    <t>33205626</t>
-  </si>
-  <si>
-    <t>33203329</t>
-  </si>
-  <si>
-    <t>33203431</t>
-  </si>
-  <si>
-    <t>33205627</t>
-  </si>
-  <si>
-    <t>33203436</t>
-  </si>
-  <si>
-    <t>33203432</t>
-  </si>
-  <si>
-    <t>33203435</t>
-  </si>
-  <si>
-    <t>33201195</t>
-  </si>
-  <si>
-    <t>33203434</t>
-  </si>
-  <si>
-    <t>33203451</t>
-  </si>
-  <si>
-    <t>33203433</t>
-  </si>
-  <si>
-    <t>33195289</t>
-  </si>
-  <si>
-    <t>33203645</t>
-  </si>
-  <si>
-    <t>33196548</t>
-  </si>
-  <si>
-    <t>33174525</t>
-  </si>
-  <si>
-    <t>33155852</t>
-  </si>
-  <si>
-    <t>33173574</t>
-  </si>
-  <si>
-    <t>33202772</t>
-  </si>
-  <si>
-    <t>33196247</t>
-  </si>
-  <si>
-    <t>33195609</t>
-  </si>
-  <si>
-    <t>33195611</t>
-  </si>
-  <si>
-    <t>33195612</t>
-  </si>
-  <si>
     <t>33188687</t>
   </si>
   <si>
@@ -2101,75 +2032,6 @@
     <t>33202840</t>
   </si>
   <si>
-    <t>1.227792349</t>
-  </si>
-  <si>
-    <t>1.227830466</t>
-  </si>
-  <si>
-    <t>1.227797998</t>
-  </si>
-  <si>
-    <t>1.227792709</t>
-  </si>
-  <si>
-    <t>1.227830376</t>
-  </si>
-  <si>
-    <t>1.227798091</t>
-  </si>
-  <si>
-    <t>1.227792529</t>
-  </si>
-  <si>
-    <t>1.227792439</t>
-  </si>
-  <si>
-    <t>1.227756598</t>
-  </si>
-  <si>
-    <t>1.227792619</t>
-  </si>
-  <si>
-    <t>1.227798453</t>
-  </si>
-  <si>
-    <t>1.227798543</t>
-  </si>
-  <si>
-    <t>1.227657129</t>
-  </si>
-  <si>
-    <t>1.227805995</t>
-  </si>
-  <si>
-    <t>1.227684823</t>
-  </si>
-  <si>
-    <t>1.227302015</t>
-  </si>
-  <si>
-    <t>1.226953210</t>
-  </si>
-  <si>
-    <t>1.227281500</t>
-  </si>
-  <si>
-    <t>1.227782994</t>
-  </si>
-  <si>
-    <t>1.227680205</t>
-  </si>
-  <si>
-    <t>1.227668760</t>
-  </si>
-  <si>
-    <t>1.227668511</t>
-  </si>
-  <si>
-    <t>1.227668389</t>
-  </si>
-  <si>
     <t>1.227535488</t>
   </si>
   <si>
@@ -2221,75 +2083,6 @@
     <t>1.227782904</t>
   </si>
   <si>
-    <t>1.227792394</t>
-  </si>
-  <si>
-    <t>1.227830511</t>
-  </si>
-  <si>
-    <t>1.227798001</t>
-  </si>
-  <si>
-    <t>1.227792754</t>
-  </si>
-  <si>
-    <t>1.227830421</t>
-  </si>
-  <si>
-    <t>1.227798094</t>
-  </si>
-  <si>
-    <t>1.227792574</t>
-  </si>
-  <si>
-    <t>1.227792484</t>
-  </si>
-  <si>
-    <t>1.227756643</t>
-  </si>
-  <si>
-    <t>1.227792664</t>
-  </si>
-  <si>
-    <t>1.227798456</t>
-  </si>
-  <si>
-    <t>1.227798546</t>
-  </si>
-  <si>
-    <t>1.227657174</t>
-  </si>
-  <si>
-    <t>1.227806005</t>
-  </si>
-  <si>
-    <t>1.227684868</t>
-  </si>
-  <si>
-    <t>1.227301999</t>
-  </si>
-  <si>
-    <t>1.226953213</t>
-  </si>
-  <si>
-    <t>1.227281484</t>
-  </si>
-  <si>
-    <t>1.227783039</t>
-  </si>
-  <si>
-    <t>1.227680250</t>
-  </si>
-  <si>
-    <t>1.227668744</t>
-  </si>
-  <si>
-    <t>1.227668495</t>
-  </si>
-  <si>
-    <t>1.227668373</t>
-  </si>
-  <si>
     <t>1.227535533</t>
   </si>
   <si>
@@ -2341,75 +2134,6 @@
     <t>1.227782949</t>
   </si>
   <si>
-    <t>1.227792433</t>
-  </si>
-  <si>
-    <t>1.227830550</t>
-  </si>
-  <si>
-    <t>1.227798045</t>
-  </si>
-  <si>
-    <t>1.227792793</t>
-  </si>
-  <si>
-    <t>1.227830460</t>
-  </si>
-  <si>
-    <t>1.227798138</t>
-  </si>
-  <si>
-    <t>1.227792613</t>
-  </si>
-  <si>
-    <t>1.227792523</t>
-  </si>
-  <si>
-    <t>1.227756682</t>
-  </si>
-  <si>
-    <t>1.227792703</t>
-  </si>
-  <si>
-    <t>1.227798500</t>
-  </si>
-  <si>
-    <t>1.227798590</t>
-  </si>
-  <si>
-    <t>1.227657213</t>
-  </si>
-  <si>
-    <t>1.227805994</t>
-  </si>
-  <si>
-    <t>1.227684907</t>
-  </si>
-  <si>
-    <t>1.227302014</t>
-  </si>
-  <si>
-    <t>1.226953258</t>
-  </si>
-  <si>
-    <t>1.227281499</t>
-  </si>
-  <si>
-    <t>1.227783078</t>
-  </si>
-  <si>
-    <t>1.227680289</t>
-  </si>
-  <si>
-    <t>1.227668759</t>
-  </si>
-  <si>
-    <t>1.227668510</t>
-  </si>
-  <si>
-    <t>1.227668388</t>
-  </si>
-  <si>
     <t>1.227535572</t>
   </si>
   <si>
@@ -2459,75 +2183,6 @@
   </si>
   <si>
     <t>1.227782988</t>
-  </si>
-  <si>
-    <t>1.227792358</t>
-  </si>
-  <si>
-    <t>1.227830475</t>
-  </si>
-  <si>
-    <t>1.227798046</t>
-  </si>
-  <si>
-    <t>1.227792718</t>
-  </si>
-  <si>
-    <t>1.227830385</t>
-  </si>
-  <si>
-    <t>1.227798139</t>
-  </si>
-  <si>
-    <t>1.227792538</t>
-  </si>
-  <si>
-    <t>1.227792448</t>
-  </si>
-  <si>
-    <t>1.227756607</t>
-  </si>
-  <si>
-    <t>1.227792628</t>
-  </si>
-  <si>
-    <t>1.227798501</t>
-  </si>
-  <si>
-    <t>1.227798591</t>
-  </si>
-  <si>
-    <t>1.227657138</t>
-  </si>
-  <si>
-    <t>1.227806004</t>
-  </si>
-  <si>
-    <t>1.227684832</t>
-  </si>
-  <si>
-    <t>1.227302024</t>
-  </si>
-  <si>
-    <t>1.226953262</t>
-  </si>
-  <si>
-    <t>1.227281509</t>
-  </si>
-  <si>
-    <t>1.227783003</t>
-  </si>
-  <si>
-    <t>1.227680214</t>
-  </si>
-  <si>
-    <t>1.227668769</t>
-  </si>
-  <si>
-    <t>1.227668520</t>
-  </si>
-  <si>
-    <t>1.227668398</t>
   </si>
   <si>
     <t>1.227535497</t>
@@ -42120,8 +41775,8 @@
       <c r="BE199">
         <v>1000</v>
       </c>
-      <c r="BF199" t="s">
-        <v>655</v>
+      <c r="BF199">
+        <v>33203437</v>
       </c>
       <c r="BG199">
         <v>10465584</v>
@@ -42132,17 +41787,17 @@
       <c r="BI199">
         <v>58805</v>
       </c>
-      <c r="BJ199" t="s">
-        <v>695</v>
-      </c>
-      <c r="BK199" t="s">
-        <v>735</v>
-      </c>
-      <c r="BL199" t="s">
-        <v>775</v>
-      </c>
-      <c r="BM199" t="s">
-        <v>815</v>
+      <c r="BJ199">
+        <v>1.227792349</v>
+      </c>
+      <c r="BK199">
+        <v>1.227792394</v>
+      </c>
+      <c r="BL199">
+        <v>1.227792433</v>
+      </c>
+      <c r="BM199">
+        <v>1.227792358</v>
       </c>
     </row>
     <row r="200" spans="1:65">
@@ -42317,8 +41972,8 @@
       <c r="BE200">
         <v>1000</v>
       </c>
-      <c r="BF200" t="s">
-        <v>656</v>
+      <c r="BF200">
+        <v>33205626</v>
       </c>
       <c r="BG200">
         <v>9899252</v>
@@ -42329,17 +41984,17 @@
       <c r="BI200">
         <v>58805</v>
       </c>
-      <c r="BJ200" t="s">
-        <v>696</v>
-      </c>
-      <c r="BK200" t="s">
-        <v>736</v>
-      </c>
-      <c r="BL200" t="s">
-        <v>776</v>
-      </c>
-      <c r="BM200" t="s">
-        <v>816</v>
+      <c r="BJ200">
+        <v>1.227830466</v>
+      </c>
+      <c r="BK200">
+        <v>1.227830511</v>
+      </c>
+      <c r="BL200">
+        <v>1.22783055</v>
+      </c>
+      <c r="BM200">
+        <v>1.227830475</v>
       </c>
     </row>
     <row r="201" spans="1:65">
@@ -42514,8 +42169,8 @@
       <c r="BE201">
         <v>1000</v>
       </c>
-      <c r="BF201" t="s">
-        <v>657</v>
+      <c r="BF201">
+        <v>33203329</v>
       </c>
       <c r="BG201">
         <v>522054</v>
@@ -42526,17 +42181,17 @@
       <c r="BI201">
         <v>58805</v>
       </c>
-      <c r="BJ201" t="s">
-        <v>697</v>
-      </c>
-      <c r="BK201" t="s">
-        <v>737</v>
-      </c>
-      <c r="BL201" t="s">
-        <v>777</v>
-      </c>
-      <c r="BM201" t="s">
-        <v>817</v>
+      <c r="BJ201">
+        <v>1.227797998</v>
+      </c>
+      <c r="BK201">
+        <v>1.227798001</v>
+      </c>
+      <c r="BL201">
+        <v>1.227798045</v>
+      </c>
+      <c r="BM201">
+        <v>1.227798046</v>
       </c>
     </row>
     <row r="202" spans="1:65">
@@ -42711,8 +42366,8 @@
       <c r="BE202">
         <v>1000</v>
       </c>
-      <c r="BF202" t="s">
-        <v>658</v>
+      <c r="BF202">
+        <v>33203431</v>
       </c>
       <c r="BG202">
         <v>60300</v>
@@ -42723,17 +42378,17 @@
       <c r="BI202">
         <v>58805</v>
       </c>
-      <c r="BJ202" t="s">
-        <v>698</v>
-      </c>
-      <c r="BK202" t="s">
-        <v>738</v>
-      </c>
-      <c r="BL202" t="s">
-        <v>778</v>
-      </c>
-      <c r="BM202" t="s">
-        <v>818</v>
+      <c r="BJ202">
+        <v>1.227792709</v>
+      </c>
+      <c r="BK202">
+        <v>1.227792754</v>
+      </c>
+      <c r="BL202">
+        <v>1.227792793</v>
+      </c>
+      <c r="BM202">
+        <v>1.227792718</v>
       </c>
     </row>
     <row r="203" spans="1:65">
@@ -42908,8 +42563,8 @@
       <c r="BE203">
         <v>1000</v>
       </c>
-      <c r="BF203" t="s">
-        <v>659</v>
+      <c r="BF203">
+        <v>33205627</v>
       </c>
       <c r="BG203">
         <v>6555084</v>
@@ -42920,17 +42575,17 @@
       <c r="BI203">
         <v>58805</v>
       </c>
-      <c r="BJ203" t="s">
-        <v>699</v>
-      </c>
-      <c r="BK203" t="s">
-        <v>739</v>
-      </c>
-      <c r="BL203" t="s">
-        <v>779</v>
-      </c>
-      <c r="BM203" t="s">
-        <v>819</v>
+      <c r="BJ203">
+        <v>1.227830376</v>
+      </c>
+      <c r="BK203">
+        <v>1.227830421</v>
+      </c>
+      <c r="BL203">
+        <v>1.22783046</v>
+      </c>
+      <c r="BM203">
+        <v>1.227830385</v>
       </c>
     </row>
     <row r="204" spans="1:65">
@@ -43105,8 +42760,8 @@
       <c r="BE204">
         <v>1000</v>
       </c>
-      <c r="BF204" t="s">
-        <v>660</v>
+      <c r="BF204">
+        <v>33203436</v>
       </c>
       <c r="BG204">
         <v>11926102</v>
@@ -43117,17 +42772,17 @@
       <c r="BI204">
         <v>58805</v>
       </c>
-      <c r="BJ204" t="s">
-        <v>700</v>
-      </c>
-      <c r="BK204" t="s">
-        <v>740</v>
-      </c>
-      <c r="BL204" t="s">
-        <v>780</v>
-      </c>
-      <c r="BM204" t="s">
-        <v>820</v>
+      <c r="BJ204">
+        <v>1.227798091</v>
+      </c>
+      <c r="BK204">
+        <v>1.227798094</v>
+      </c>
+      <c r="BL204">
+        <v>1.227798138</v>
+      </c>
+      <c r="BM204">
+        <v>1.227798139</v>
       </c>
     </row>
     <row r="205" spans="1:65">
@@ -43302,8 +42957,8 @@
       <c r="BE205">
         <v>1000</v>
       </c>
-      <c r="BF205" t="s">
-        <v>661</v>
+      <c r="BF205">
+        <v>33203432</v>
       </c>
       <c r="BG205">
         <v>25562564</v>
@@ -43314,17 +42969,17 @@
       <c r="BI205">
         <v>58805</v>
       </c>
-      <c r="BJ205" t="s">
-        <v>701</v>
-      </c>
-      <c r="BK205" t="s">
-        <v>741</v>
-      </c>
-      <c r="BL205" t="s">
-        <v>781</v>
-      </c>
-      <c r="BM205" t="s">
-        <v>821</v>
+      <c r="BJ205">
+        <v>1.227792529</v>
+      </c>
+      <c r="BK205">
+        <v>1.227792574</v>
+      </c>
+      <c r="BL205">
+        <v>1.227792613</v>
+      </c>
+      <c r="BM205">
+        <v>1.227792538</v>
       </c>
     </row>
     <row r="206" spans="1:65">
@@ -43499,8 +43154,8 @@
       <c r="BE206">
         <v>1000</v>
       </c>
-      <c r="BF206" t="s">
-        <v>662</v>
+      <c r="BF206">
+        <v>33203435</v>
       </c>
       <c r="BG206">
         <v>10647603</v>
@@ -43511,17 +43166,17 @@
       <c r="BI206">
         <v>58805</v>
       </c>
-      <c r="BJ206" t="s">
-        <v>702</v>
-      </c>
-      <c r="BK206" t="s">
-        <v>742</v>
-      </c>
-      <c r="BL206" t="s">
-        <v>782</v>
-      </c>
-      <c r="BM206" t="s">
-        <v>822</v>
+      <c r="BJ206">
+        <v>1.227792439</v>
+      </c>
+      <c r="BK206">
+        <v>1.227792484</v>
+      </c>
+      <c r="BL206">
+        <v>1.227792523</v>
+      </c>
+      <c r="BM206">
+        <v>1.227792448</v>
       </c>
     </row>
     <row r="207" spans="1:65">
@@ -43696,8 +43351,8 @@
       <c r="BE207">
         <v>1000</v>
       </c>
-      <c r="BF207" t="s">
-        <v>663</v>
+      <c r="BF207">
+        <v>33201195</v>
       </c>
       <c r="BG207">
         <v>522053</v>
@@ -43708,17 +43363,17 @@
       <c r="BI207">
         <v>58805</v>
       </c>
-      <c r="BJ207" t="s">
-        <v>703</v>
-      </c>
-      <c r="BK207" t="s">
-        <v>743</v>
-      </c>
-      <c r="BL207" t="s">
-        <v>783</v>
-      </c>
-      <c r="BM207" t="s">
-        <v>823</v>
+      <c r="BJ207">
+        <v>1.227756598</v>
+      </c>
+      <c r="BK207">
+        <v>1.227756643</v>
+      </c>
+      <c r="BL207">
+        <v>1.227756682</v>
+      </c>
+      <c r="BM207">
+        <v>1.227756607</v>
       </c>
     </row>
     <row r="208" spans="1:65">
@@ -43893,8 +43548,8 @@
       <c r="BE208">
         <v>1000</v>
       </c>
-      <c r="BF208" t="s">
-        <v>664</v>
+      <c r="BF208">
+        <v>33203434</v>
       </c>
       <c r="BG208">
         <v>7602657</v>
@@ -43905,17 +43560,17 @@
       <c r="BI208">
         <v>58805</v>
       </c>
-      <c r="BJ208" t="s">
-        <v>704</v>
-      </c>
-      <c r="BK208" t="s">
-        <v>744</v>
-      </c>
-      <c r="BL208" t="s">
-        <v>784</v>
-      </c>
-      <c r="BM208" t="s">
-        <v>824</v>
+      <c r="BJ208">
+        <v>1.227792619</v>
+      </c>
+      <c r="BK208">
+        <v>1.227792664</v>
+      </c>
+      <c r="BL208">
+        <v>1.227792703</v>
+      </c>
+      <c r="BM208">
+        <v>1.227792628</v>
       </c>
     </row>
     <row r="209" spans="1:65">
@@ -44090,8 +43745,8 @@
       <c r="BE209">
         <v>1000</v>
       </c>
-      <c r="BF209" t="s">
-        <v>665</v>
+      <c r="BF209">
+        <v>33203451</v>
       </c>
       <c r="BG209">
         <v>2519555</v>
@@ -44102,17 +43757,17 @@
       <c r="BI209">
         <v>58805</v>
       </c>
-      <c r="BJ209" t="s">
-        <v>705</v>
-      </c>
-      <c r="BK209" t="s">
-        <v>745</v>
-      </c>
-      <c r="BL209" t="s">
-        <v>785</v>
-      </c>
-      <c r="BM209" t="s">
-        <v>825</v>
+      <c r="BJ209">
+        <v>1.227798453</v>
+      </c>
+      <c r="BK209">
+        <v>1.227798456</v>
+      </c>
+      <c r="BL209">
+        <v>1.2277985</v>
+      </c>
+      <c r="BM209">
+        <v>1.227798501</v>
       </c>
     </row>
     <row r="210" spans="1:65">
@@ -44287,8 +43942,8 @@
       <c r="BE210">
         <v>1000</v>
       </c>
-      <c r="BF210" t="s">
-        <v>666</v>
+      <c r="BF210">
+        <v>33203433</v>
       </c>
       <c r="BG210">
         <v>10286550</v>
@@ -44299,17 +43954,17 @@
       <c r="BI210">
         <v>58805</v>
       </c>
-      <c r="BJ210" t="s">
-        <v>706</v>
-      </c>
-      <c r="BK210" t="s">
-        <v>746</v>
-      </c>
-      <c r="BL210" t="s">
-        <v>786</v>
-      </c>
-      <c r="BM210" t="s">
-        <v>826</v>
+      <c r="BJ210">
+        <v>1.227798543</v>
+      </c>
+      <c r="BK210">
+        <v>1.227798546</v>
+      </c>
+      <c r="BL210">
+        <v>1.22779859</v>
+      </c>
+      <c r="BM210">
+        <v>1.227798591</v>
       </c>
     </row>
     <row r="211" spans="1:65">
@@ -44484,8 +44139,8 @@
       <c r="BE211">
         <v>1000</v>
       </c>
-      <c r="BF211" t="s">
-        <v>667</v>
+      <c r="BF211">
+        <v>33195289</v>
       </c>
       <c r="BG211">
         <v>166903</v>
@@ -44496,17 +44151,17 @@
       <c r="BI211">
         <v>58805</v>
       </c>
-      <c r="BJ211" t="s">
-        <v>707</v>
-      </c>
-      <c r="BK211" t="s">
-        <v>747</v>
-      </c>
-      <c r="BL211" t="s">
-        <v>787</v>
-      </c>
-      <c r="BM211" t="s">
-        <v>827</v>
+      <c r="BJ211">
+        <v>1.227657129</v>
+      </c>
+      <c r="BK211">
+        <v>1.227657174</v>
+      </c>
+      <c r="BL211">
+        <v>1.227657213</v>
+      </c>
+      <c r="BM211">
+        <v>1.227657138</v>
       </c>
     </row>
     <row r="212" spans="1:65">
@@ -44681,8 +44336,8 @@
       <c r="BE212">
         <v>1000</v>
       </c>
-      <c r="BF212" t="s">
-        <v>668</v>
+      <c r="BF212">
+        <v>33203645</v>
       </c>
       <c r="BG212">
         <v>194515</v>
@@ -44693,17 +44348,17 @@
       <c r="BI212">
         <v>58805</v>
       </c>
-      <c r="BJ212" t="s">
-        <v>708</v>
-      </c>
-      <c r="BK212" t="s">
-        <v>748</v>
-      </c>
-      <c r="BL212" t="s">
-        <v>788</v>
-      </c>
-      <c r="BM212" t="s">
-        <v>828</v>
+      <c r="BJ212">
+        <v>1.227805995</v>
+      </c>
+      <c r="BK212">
+        <v>1.227806005</v>
+      </c>
+      <c r="BL212">
+        <v>1.227805994</v>
+      </c>
+      <c r="BM212">
+        <v>1.227806004</v>
       </c>
     </row>
     <row r="213" spans="1:65">
@@ -44878,8 +44533,8 @@
       <c r="BE213">
         <v>1000</v>
       </c>
-      <c r="BF213" t="s">
-        <v>669</v>
+      <c r="BF213">
+        <v>33196548</v>
       </c>
       <c r="BG213">
         <v>3206731</v>
@@ -44890,17 +44545,17 @@
       <c r="BI213">
         <v>58805</v>
       </c>
-      <c r="BJ213" t="s">
-        <v>709</v>
-      </c>
-      <c r="BK213" t="s">
-        <v>749</v>
-      </c>
-      <c r="BL213" t="s">
-        <v>789</v>
-      </c>
-      <c r="BM213" t="s">
-        <v>829</v>
+      <c r="BJ213">
+        <v>1.227684823</v>
+      </c>
+      <c r="BK213">
+        <v>1.227684868</v>
+      </c>
+      <c r="BL213">
+        <v>1.227684907</v>
+      </c>
+      <c r="BM213">
+        <v>1.227684832</v>
       </c>
     </row>
     <row r="214" spans="1:65">
@@ -45075,8 +44730,8 @@
       <c r="BE214">
         <v>1000</v>
       </c>
-      <c r="BF214" t="s">
-        <v>670</v>
+      <c r="BF214">
+        <v>33174525</v>
       </c>
       <c r="BG214">
         <v>13659467</v>
@@ -45087,17 +44742,17 @@
       <c r="BI214">
         <v>58805</v>
       </c>
-      <c r="BJ214" t="s">
-        <v>710</v>
-      </c>
-      <c r="BK214" t="s">
-        <v>750</v>
-      </c>
-      <c r="BL214" t="s">
-        <v>790</v>
-      </c>
-      <c r="BM214" t="s">
-        <v>830</v>
+      <c r="BJ214">
+        <v>1.227302015</v>
+      </c>
+      <c r="BK214">
+        <v>1.227301999</v>
+      </c>
+      <c r="BL214">
+        <v>1.227302014</v>
+      </c>
+      <c r="BM214">
+        <v>1.227302024</v>
       </c>
     </row>
     <row r="215" spans="1:65">
@@ -45272,8 +44927,8 @@
       <c r="BE215">
         <v>360</v>
       </c>
-      <c r="BF215" t="s">
-        <v>671</v>
+      <c r="BF215">
+        <v>33155852</v>
       </c>
       <c r="BG215">
         <v>2426</v>
@@ -45284,17 +44939,17 @@
       <c r="BI215">
         <v>58805</v>
       </c>
-      <c r="BJ215" t="s">
-        <v>711</v>
-      </c>
-      <c r="BK215" t="s">
-        <v>751</v>
-      </c>
-      <c r="BL215" t="s">
-        <v>791</v>
-      </c>
-      <c r="BM215" t="s">
-        <v>831</v>
+      <c r="BJ215">
+        <v>1.22695321</v>
+      </c>
+      <c r="BK215">
+        <v>1.226953213</v>
+      </c>
+      <c r="BL215">
+        <v>1.226953258</v>
+      </c>
+      <c r="BM215">
+        <v>1.226953262</v>
       </c>
     </row>
     <row r="216" spans="1:65">
@@ -45469,8 +45124,8 @@
       <c r="BE216">
         <v>980</v>
       </c>
-      <c r="BF216" t="s">
-        <v>672</v>
+      <c r="BF216">
+        <v>33173574</v>
       </c>
       <c r="BG216">
         <v>489720</v>
@@ -45481,17 +45136,17 @@
       <c r="BI216">
         <v>58805</v>
       </c>
-      <c r="BJ216" t="s">
-        <v>712</v>
-      </c>
-      <c r="BK216" t="s">
-        <v>752</v>
-      </c>
-      <c r="BL216" t="s">
-        <v>792</v>
-      </c>
-      <c r="BM216" t="s">
-        <v>832</v>
+      <c r="BJ216">
+        <v>1.2272815</v>
+      </c>
+      <c r="BK216">
+        <v>1.227281484</v>
+      </c>
+      <c r="BL216">
+        <v>1.227281499</v>
+      </c>
+      <c r="BM216">
+        <v>1.227281509</v>
       </c>
     </row>
     <row r="217" spans="1:65">
@@ -45666,8 +45321,8 @@
       <c r="BE217">
         <v>1000</v>
       </c>
-      <c r="BF217" t="s">
-        <v>673</v>
+      <c r="BF217">
+        <v>33202772</v>
       </c>
       <c r="BG217">
         <v>4908158</v>
@@ -45678,17 +45333,17 @@
       <c r="BI217">
         <v>58805</v>
       </c>
-      <c r="BJ217" t="s">
-        <v>713</v>
-      </c>
-      <c r="BK217" t="s">
-        <v>753</v>
-      </c>
-      <c r="BL217" t="s">
-        <v>793</v>
-      </c>
-      <c r="BM217" t="s">
-        <v>833</v>
+      <c r="BJ217">
+        <v>1.227782994</v>
+      </c>
+      <c r="BK217">
+        <v>1.227783039</v>
+      </c>
+      <c r="BL217">
+        <v>1.227783078</v>
+      </c>
+      <c r="BM217">
+        <v>1.227783003</v>
       </c>
     </row>
     <row r="218" spans="1:65">
@@ -45863,8 +45518,8 @@
       <c r="BE218">
         <v>1000</v>
       </c>
-      <c r="BF218" t="s">
-        <v>674</v>
+      <c r="BF218">
+        <v>33196247</v>
       </c>
       <c r="BG218">
         <v>5129869</v>
@@ -45875,17 +45530,17 @@
       <c r="BI218">
         <v>58805</v>
       </c>
-      <c r="BJ218" t="s">
-        <v>714</v>
-      </c>
-      <c r="BK218" t="s">
-        <v>754</v>
-      </c>
-      <c r="BL218" t="s">
-        <v>794</v>
-      </c>
-      <c r="BM218" t="s">
-        <v>834</v>
+      <c r="BJ218">
+        <v>1.227680205</v>
+      </c>
+      <c r="BK218">
+        <v>1.22768025</v>
+      </c>
+      <c r="BL218">
+        <v>1.227680289</v>
+      </c>
+      <c r="BM218">
+        <v>1.227680214</v>
       </c>
     </row>
     <row r="219" spans="1:65">
@@ -46060,8 +45715,8 @@
       <c r="BE219">
         <v>1000</v>
       </c>
-      <c r="BF219" t="s">
-        <v>675</v>
+      <c r="BF219">
+        <v>33195609</v>
       </c>
       <c r="BG219">
         <v>36860494</v>
@@ -46072,17 +45727,17 @@
       <c r="BI219">
         <v>58805</v>
       </c>
-      <c r="BJ219" t="s">
-        <v>715</v>
-      </c>
-      <c r="BK219" t="s">
-        <v>755</v>
-      </c>
-      <c r="BL219" t="s">
-        <v>795</v>
-      </c>
-      <c r="BM219" t="s">
-        <v>835</v>
+      <c r="BJ219">
+        <v>1.22766876</v>
+      </c>
+      <c r="BK219">
+        <v>1.227668744</v>
+      </c>
+      <c r="BL219">
+        <v>1.227668759</v>
+      </c>
+      <c r="BM219">
+        <v>1.227668769</v>
       </c>
     </row>
     <row r="220" spans="1:65">
@@ -46257,8 +45912,8 @@
       <c r="BE220">
         <v>1000</v>
       </c>
-      <c r="BF220" t="s">
-        <v>676</v>
+      <c r="BF220">
+        <v>33195611</v>
       </c>
       <c r="BG220">
         <v>22498185</v>
@@ -46269,17 +45924,17 @@
       <c r="BI220">
         <v>58805</v>
       </c>
-      <c r="BJ220" t="s">
-        <v>716</v>
-      </c>
-      <c r="BK220" t="s">
-        <v>756</v>
-      </c>
-      <c r="BL220" t="s">
-        <v>796</v>
-      </c>
-      <c r="BM220" t="s">
-        <v>836</v>
+      <c r="BJ220">
+        <v>1.227668511</v>
+      </c>
+      <c r="BK220">
+        <v>1.227668495</v>
+      </c>
+      <c r="BL220">
+        <v>1.22766851</v>
+      </c>
+      <c r="BM220">
+        <v>1.22766852</v>
       </c>
     </row>
     <row r="221" spans="1:65">
@@ -46454,8 +46109,8 @@
       <c r="BE221">
         <v>1000</v>
       </c>
-      <c r="BF221" t="s">
-        <v>677</v>
+      <c r="BF221">
+        <v>33195612</v>
       </c>
       <c r="BG221">
         <v>5336581</v>
@@ -46466,17 +46121,17 @@
       <c r="BI221">
         <v>58805</v>
       </c>
-      <c r="BJ221" t="s">
-        <v>717</v>
-      </c>
-      <c r="BK221" t="s">
-        <v>757</v>
-      </c>
-      <c r="BL221" t="s">
-        <v>797</v>
-      </c>
-      <c r="BM221" t="s">
-        <v>837</v>
+      <c r="BJ221">
+        <v>1.227668389</v>
+      </c>
+      <c r="BK221">
+        <v>1.227668373</v>
+      </c>
+      <c r="BL221">
+        <v>1.227668388</v>
+      </c>
+      <c r="BM221">
+        <v>1.227668398</v>
       </c>
     </row>
     <row r="222" spans="1:65">
@@ -46574,13 +46229,13 @@
         <v>7.8</v>
       </c>
       <c r="AF222">
-        <v>5.1</v>
+        <v>1.58</v>
       </c>
       <c r="AG222">
         <v>19.5</v>
       </c>
       <c r="AH222">
-        <v>1.68</v>
+        <v>1.4</v>
       </c>
       <c r="AI222">
         <v>1000</v>
@@ -46616,19 +46271,19 @@
         <v>38</v>
       </c>
       <c r="AT222">
-        <v>4.8</v>
+        <v>1.72</v>
       </c>
       <c r="AU222">
         <v>38</v>
       </c>
       <c r="AV222">
-        <v>4.5</v>
+        <v>1.72</v>
       </c>
       <c r="AW222">
         <v>1000</v>
       </c>
       <c r="AX222">
-        <v>7.2</v>
+        <v>1.43</v>
       </c>
       <c r="AY222">
         <v>1000</v>
@@ -46646,13 +46301,13 @@
         <v>1000</v>
       </c>
       <c r="BD222">
-        <v>7</v>
+        <v>1.7</v>
       </c>
       <c r="BE222">
         <v>1000</v>
       </c>
       <c r="BF222" t="s">
-        <v>678</v>
+        <v>655</v>
       </c>
       <c r="BG222">
         <v>7210009</v>
@@ -46664,16 +46319,16 @@
         <v>58805</v>
       </c>
       <c r="BJ222" t="s">
-        <v>718</v>
+        <v>672</v>
       </c>
       <c r="BK222" t="s">
-        <v>758</v>
+        <v>689</v>
       </c>
       <c r="BL222" t="s">
-        <v>798</v>
+        <v>706</v>
       </c>
       <c r="BM222" t="s">
-        <v>838</v>
+        <v>723</v>
       </c>
     </row>
     <row r="223" spans="1:65">
@@ -46699,7 +46354,7 @@
         <v>2.26</v>
       </c>
       <c r="H223">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I223">
         <v>4.6</v>
@@ -46708,13 +46363,13 @@
         <v>3.25</v>
       </c>
       <c r="K223">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L223">
         <v>1.72</v>
       </c>
       <c r="M223">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="N223">
         <v>2.16</v>
@@ -46735,97 +46390,97 @@
         <v>2.12</v>
       </c>
       <c r="T223">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="U223">
         <v>12</v>
       </c>
       <c r="V223">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="W223">
         <v>14</v>
       </c>
       <c r="X223">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="Y223">
         <v>1000</v>
       </c>
       <c r="Z223">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="AA223">
         <v>1000</v>
       </c>
       <c r="AB223">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="AC223">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD223">
-        <v>1.03</v>
+        <v>6.6</v>
       </c>
       <c r="AE223">
         <v>8.6</v>
       </c>
       <c r="AF223">
-        <v>1.03</v>
+        <v>4.9</v>
       </c>
       <c r="AG223">
         <v>1000</v>
       </c>
       <c r="AH223">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="AI223">
         <v>1000</v>
       </c>
       <c r="AJ223">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="AK223">
         <v>13.5</v>
       </c>
       <c r="AL223">
-        <v>1.03</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM223">
         <v>12.5</v>
       </c>
       <c r="AN223">
-        <v>1.03</v>
+        <v>2.54</v>
       </c>
       <c r="AO223">
         <v>1000</v>
       </c>
       <c r="AP223">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="AQ223">
         <v>1000</v>
       </c>
       <c r="AR223">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="AS223">
         <v>1000</v>
       </c>
       <c r="AT223">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="AU223">
         <v>1000</v>
       </c>
       <c r="AV223">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="AW223">
         <v>1000</v>
       </c>
       <c r="AX223">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="AY223">
         <v>1000</v>
@@ -46843,13 +46498,13 @@
         <v>1000</v>
       </c>
       <c r="BD223">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="BE223">
         <v>1000</v>
       </c>
       <c r="BF223" t="s">
-        <v>679</v>
+        <v>656</v>
       </c>
       <c r="BG223">
         <v>198125</v>
@@ -46861,16 +46516,16 @@
         <v>58805</v>
       </c>
       <c r="BJ223" t="s">
-        <v>719</v>
+        <v>673</v>
       </c>
       <c r="BK223" t="s">
-        <v>759</v>
+        <v>690</v>
       </c>
       <c r="BL223" t="s">
-        <v>799</v>
+        <v>707</v>
       </c>
       <c r="BM223" t="s">
-        <v>839</v>
+        <v>724</v>
       </c>
     </row>
     <row r="224" spans="1:65">
@@ -46893,28 +46548,28 @@
         <v>1.28</v>
       </c>
       <c r="G224">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H224">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="I224">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="J224">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="K224">
         <v>7</v>
       </c>
       <c r="L224">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="M224">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="N224">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="O224">
         <v>1.59</v>
@@ -46926,7 +46581,7 @@
         <v>2.18</v>
       </c>
       <c r="R224">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="S224">
         <v>1.95</v>
@@ -46935,7 +46590,7 @@
         <v>24</v>
       </c>
       <c r="U224">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="V224">
         <v>38</v>
@@ -46944,13 +46599,13 @@
         <v>44</v>
       </c>
       <c r="X224">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y224">
         <v>130</v>
       </c>
       <c r="Z224">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA224">
         <v>550</v>
@@ -46959,7 +46614,7 @@
         <v>9.4</v>
       </c>
       <c r="AC224">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD224">
         <v>13.5</v>
@@ -46968,7 +46623,7 @@
         <v>15</v>
       </c>
       <c r="AF224">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG224">
         <v>46</v>
@@ -46992,13 +46647,13 @@
         <v>10.5</v>
       </c>
       <c r="AN224">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO224">
         <v>32</v>
       </c>
       <c r="AP224">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AQ224">
         <v>160</v>
@@ -47007,7 +46662,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AS224">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AT224">
         <v>12</v>
@@ -47022,31 +46677,31 @@
         <v>34</v>
       </c>
       <c r="AX224">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="AY224">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AZ224">
         <v>3.95</v>
       </c>
       <c r="BA224">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="BB224">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="BC224">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="BD224">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BE224">
         <v>1000</v>
       </c>
       <c r="BF224" t="s">
-        <v>680</v>
+        <v>657</v>
       </c>
       <c r="BG224">
         <v>52495073</v>
@@ -47058,16 +46713,16 @@
         <v>58805</v>
       </c>
       <c r="BJ224" t="s">
-        <v>720</v>
+        <v>674</v>
       </c>
       <c r="BK224" t="s">
-        <v>760</v>
+        <v>691</v>
       </c>
       <c r="BL224" t="s">
-        <v>800</v>
+        <v>708</v>
       </c>
       <c r="BM224" t="s">
-        <v>840</v>
+        <v>725</v>
       </c>
     </row>
     <row r="225" spans="1:65">
@@ -47087,22 +46742,22 @@
         <v>641</v>
       </c>
       <c r="F225">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="G225">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="H225">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I225">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J225">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K225">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L225">
         <v>1.6</v>
@@ -47120,10 +46775,10 @@
         <v>1.95</v>
       </c>
       <c r="Q225">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R225">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="S225">
         <v>2.06</v>
@@ -47141,7 +46796,7 @@
         <v>11.5</v>
       </c>
       <c r="X225">
-        <v>5.4</v>
+        <v>17</v>
       </c>
       <c r="Y225">
         <v>24</v>
@@ -47177,7 +46832,7 @@
         <v>55</v>
       </c>
       <c r="AJ225">
-        <v>12</v>
+        <v>5.1</v>
       </c>
       <c r="AK225">
         <v>16.5</v>
@@ -47189,7 +46844,7 @@
         <v>14</v>
       </c>
       <c r="AN225">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AO225">
         <v>24</v>
@@ -47201,13 +46856,13 @@
         <v>80</v>
       </c>
       <c r="AR225">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="AS225">
         <v>42</v>
       </c>
       <c r="AT225">
-        <v>5.9</v>
+        <v>25</v>
       </c>
       <c r="AU225">
         <v>38</v>
@@ -47243,7 +46898,7 @@
         <v>1000</v>
       </c>
       <c r="BF225" t="s">
-        <v>681</v>
+        <v>658</v>
       </c>
       <c r="BG225">
         <v>16192656</v>
@@ -47255,16 +46910,16 @@
         <v>58805</v>
       </c>
       <c r="BJ225" t="s">
-        <v>721</v>
+        <v>675</v>
       </c>
       <c r="BK225" t="s">
-        <v>761</v>
+        <v>692</v>
       </c>
       <c r="BL225" t="s">
-        <v>801</v>
+        <v>709</v>
       </c>
       <c r="BM225" t="s">
-        <v>841</v>
+        <v>726</v>
       </c>
     </row>
     <row r="226" spans="1:65">
@@ -47284,7 +46939,7 @@
         <v>642</v>
       </c>
       <c r="F226">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G226">
         <v>3.65</v>
@@ -47314,7 +46969,7 @@
         <v>2.76</v>
       </c>
       <c r="P226">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q226">
         <v>2.38</v>
@@ -47323,7 +46978,7 @@
         <v>1.72</v>
       </c>
       <c r="S226">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T226">
         <v>7.6</v>
@@ -47380,7 +47035,7 @@
         <v>980</v>
       </c>
       <c r="AL226">
-        <v>5.6</v>
+        <v>13.5</v>
       </c>
       <c r="AM226">
         <v>17</v>
@@ -47440,7 +47095,7 @@
         <v>1000</v>
       </c>
       <c r="BF226" t="s">
-        <v>682</v>
+        <v>659</v>
       </c>
       <c r="BG226">
         <v>204603</v>
@@ -47452,16 +47107,16 @@
         <v>58805</v>
       </c>
       <c r="BJ226" t="s">
-        <v>722</v>
+        <v>676</v>
       </c>
       <c r="BK226" t="s">
-        <v>762</v>
+        <v>693</v>
       </c>
       <c r="BL226" t="s">
-        <v>802</v>
+        <v>710</v>
       </c>
       <c r="BM226" t="s">
-        <v>842</v>
+        <v>727</v>
       </c>
     </row>
     <row r="227" spans="1:65">
@@ -47484,19 +47139,19 @@
         <v>1.68</v>
       </c>
       <c r="G227">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="H227">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="I227">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J227">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="K227">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L227">
         <v>1.92</v>
@@ -47535,16 +47190,16 @@
         <v>980</v>
       </c>
       <c r="X227">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="Y227">
         <v>48</v>
       </c>
       <c r="Z227">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AA227">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB227">
         <v>6.8</v>
@@ -47556,16 +47211,16 @@
         <v>8</v>
       </c>
       <c r="AE227">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AF227">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AG227">
         <v>980</v>
       </c>
       <c r="AH227">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AI227">
         <v>90</v>
@@ -47583,13 +47238,13 @@
         <v>11.5</v>
       </c>
       <c r="AN227">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="AO227">
         <v>980</v>
       </c>
       <c r="AP227">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AQ227">
         <v>95</v>
@@ -47604,16 +47259,16 @@
         <v>15.5</v>
       </c>
       <c r="AU227">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AV227">
         <v>7.4</v>
       </c>
       <c r="AW227">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AX227">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AY227">
         <v>1000</v>
@@ -47622,22 +47277,22 @@
         <v>4.7</v>
       </c>
       <c r="BA227">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="BB227">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="BC227">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="BD227">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="BE227">
         <v>1000</v>
       </c>
       <c r="BF227" t="s">
-        <v>683</v>
+        <v>660</v>
       </c>
       <c r="BG227">
         <v>328690</v>
@@ -47649,16 +47304,16 @@
         <v>58805</v>
       </c>
       <c r="BJ227" t="s">
-        <v>723</v>
+        <v>677</v>
       </c>
       <c r="BK227" t="s">
-        <v>763</v>
+        <v>694</v>
       </c>
       <c r="BL227" t="s">
-        <v>803</v>
+        <v>711</v>
       </c>
       <c r="BM227" t="s">
-        <v>843</v>
+        <v>728</v>
       </c>
     </row>
     <row r="228" spans="1:65">
@@ -47693,7 +47348,7 @@
         <v>2.76</v>
       </c>
       <c r="K228">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="L228">
         <v>1.47</v>
@@ -47702,7 +47357,7 @@
         <v>1.6</v>
       </c>
       <c r="N228">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="O228">
         <v>3.15</v>
@@ -47720,121 +47375,121 @@
         <v>1.89</v>
       </c>
       <c r="T228">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="U228">
         <v>9.199999999999999</v>
       </c>
       <c r="V228">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="W228">
         <v>12</v>
       </c>
       <c r="X228">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Y228">
         <v>27</v>
       </c>
       <c r="Z228">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="AA228">
         <v>90</v>
       </c>
       <c r="AB228">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="AC228">
         <v>9.4</v>
       </c>
       <c r="AD228">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="AE228">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AF228">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="AG228">
         <v>21</v>
       </c>
       <c r="AH228">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="AI228">
         <v>70</v>
       </c>
       <c r="AJ228">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="AK228">
         <v>18</v>
       </c>
       <c r="AL228">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="AM228">
         <v>16</v>
       </c>
       <c r="AN228">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AO228">
         <v>30</v>
       </c>
       <c r="AP228">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="AQ228">
         <v>110</v>
       </c>
       <c r="AR228">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="AS228">
         <v>50</v>
       </c>
       <c r="AT228">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="AU228">
         <v>48</v>
       </c>
       <c r="AV228">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="AW228">
         <v>90</v>
       </c>
       <c r="AX228">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="AY228">
         <v>1000</v>
       </c>
       <c r="AZ228">
-        <v>4</v>
+        <v>2.74</v>
       </c>
       <c r="BA228">
         <v>55</v>
       </c>
       <c r="BB228">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="BC228">
         <v>95</v>
       </c>
       <c r="BD228">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="BE228">
         <v>1000</v>
       </c>
       <c r="BF228" t="s">
-        <v>684</v>
+        <v>661</v>
       </c>
       <c r="BG228">
         <v>39170146</v>
@@ -47846,16 +47501,16 @@
         <v>58805</v>
       </c>
       <c r="BJ228" t="s">
-        <v>724</v>
+        <v>678</v>
       </c>
       <c r="BK228" t="s">
-        <v>764</v>
+        <v>695</v>
       </c>
       <c r="BL228" t="s">
-        <v>804</v>
+        <v>712</v>
       </c>
       <c r="BM228" t="s">
-        <v>844</v>
+        <v>729</v>
       </c>
     </row>
     <row r="229" spans="1:65">
@@ -47881,13 +47536,13 @@
         <v>1.83</v>
       </c>
       <c r="H229">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I229">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J229">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K229">
         <v>4.3</v>
@@ -47896,7 +47551,7 @@
         <v>2.18</v>
       </c>
       <c r="M229">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="N229">
         <v>1.78</v>
@@ -47905,7 +47560,7 @@
         <v>1.85</v>
       </c>
       <c r="P229">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="Q229">
         <v>1.93</v>
@@ -47914,7 +47569,7 @@
         <v>2.08</v>
       </c>
       <c r="S229">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="T229">
         <v>12.5</v>
@@ -47935,7 +47590,7 @@
         <v>42</v>
       </c>
       <c r="Z229">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AA229">
         <v>1000</v>
@@ -47953,13 +47608,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AF229">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AG229">
         <v>22</v>
       </c>
       <c r="AH229">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AI229">
         <v>65</v>
@@ -47983,7 +47638,7 @@
         <v>23</v>
       </c>
       <c r="AP229">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AQ229">
         <v>70</v>
@@ -48007,7 +47662,7 @@
         <v>40</v>
       </c>
       <c r="AX229">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AY229">
         <v>240</v>
@@ -48016,22 +47671,22 @@
         <v>3.6</v>
       </c>
       <c r="BA229">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="BB229">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="BC229">
         <v>60</v>
       </c>
       <c r="BD229">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="BE229">
         <v>1000</v>
       </c>
       <c r="BF229" t="s">
-        <v>685</v>
+        <v>662</v>
       </c>
       <c r="BG229">
         <v>1388376</v>
@@ -48043,16 +47698,16 @@
         <v>58805</v>
       </c>
       <c r="BJ229" t="s">
-        <v>725</v>
+        <v>679</v>
       </c>
       <c r="BK229" t="s">
-        <v>765</v>
+        <v>696</v>
       </c>
       <c r="BL229" t="s">
-        <v>805</v>
+        <v>713</v>
       </c>
       <c r="BM229" t="s">
-        <v>845</v>
+        <v>730</v>
       </c>
     </row>
     <row r="230" spans="1:65">
@@ -48072,19 +47727,19 @@
         <v>646</v>
       </c>
       <c r="F230">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="G230">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="H230">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="I230">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="J230">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K230">
         <v>3.2</v>
@@ -48099,7 +47754,7 @@
         <v>2.64</v>
       </c>
       <c r="O230">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="P230">
         <v>2.06</v>
@@ -48120,13 +47775,13 @@
         <v>8.4</v>
       </c>
       <c r="V230">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="W230">
         <v>9</v>
       </c>
       <c r="X230">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y230">
         <v>18</v>
@@ -48138,10 +47793,10 @@
         <v>55</v>
       </c>
       <c r="AB230">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC230">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD230">
         <v>6.6</v>
@@ -48165,7 +47820,7 @@
         <v>15</v>
       </c>
       <c r="AK230">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL230">
         <v>12.5</v>
@@ -48189,7 +47844,7 @@
         <v>42</v>
       </c>
       <c r="AS230">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AT230">
         <v>36</v>
@@ -48219,16 +47874,16 @@
         <v>38</v>
       </c>
       <c r="BC230">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="BD230">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="BE230">
         <v>1000</v>
       </c>
       <c r="BF230" t="s">
-        <v>686</v>
+        <v>663</v>
       </c>
       <c r="BG230">
         <v>5326988</v>
@@ -48240,16 +47895,16 @@
         <v>58805</v>
       </c>
       <c r="BJ230" t="s">
-        <v>726</v>
+        <v>680</v>
       </c>
       <c r="BK230" t="s">
-        <v>766</v>
+        <v>697</v>
       </c>
       <c r="BL230" t="s">
-        <v>806</v>
+        <v>714</v>
       </c>
       <c r="BM230" t="s">
-        <v>846</v>
+        <v>731</v>
       </c>
     </row>
     <row r="231" spans="1:65">
@@ -48272,13 +47927,13 @@
         <v>1.76</v>
       </c>
       <c r="G231">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="H231">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I231">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J231">
         <v>3.75</v>
@@ -48287,10 +47942,10 @@
         <v>3.9</v>
       </c>
       <c r="L231">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="M231">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="N231">
         <v>2.32</v>
@@ -48299,7 +47954,7 @@
         <v>2.42</v>
       </c>
       <c r="P231">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q231">
         <v>2.3</v>
@@ -48314,7 +47969,7 @@
         <v>10</v>
       </c>
       <c r="U231">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="V231">
         <v>15</v>
@@ -48329,7 +47984,7 @@
         <v>42</v>
       </c>
       <c r="Z231">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AA231">
         <v>170</v>
@@ -48350,7 +48005,7 @@
         <v>20</v>
       </c>
       <c r="AG231">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH231">
         <v>80</v>
@@ -48359,22 +48014,22 @@
         <v>100</v>
       </c>
       <c r="AJ231">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AK231">
         <v>9.199999999999999</v>
       </c>
       <c r="AL231">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AM231">
         <v>10.5</v>
       </c>
       <c r="AN231">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO231">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP231">
         <v>85</v>
@@ -48407,25 +48062,25 @@
         <v>190</v>
       </c>
       <c r="AZ231">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="BA231">
         <v>15</v>
       </c>
       <c r="BB231">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BC231">
         <v>160</v>
       </c>
       <c r="BD231">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BE231">
         <v>1000</v>
       </c>
       <c r="BF231" t="s">
-        <v>687</v>
+        <v>664</v>
       </c>
       <c r="BG231">
         <v>198128</v>
@@ -48437,16 +48092,16 @@
         <v>58805</v>
       </c>
       <c r="BJ231" t="s">
-        <v>727</v>
+        <v>681</v>
       </c>
       <c r="BK231" t="s">
-        <v>767</v>
+        <v>698</v>
       </c>
       <c r="BL231" t="s">
-        <v>807</v>
+        <v>715</v>
       </c>
       <c r="BM231" t="s">
-        <v>847</v>
+        <v>732</v>
       </c>
     </row>
     <row r="232" spans="1:65">
@@ -48484,28 +48139,28 @@
         <v>3.55</v>
       </c>
       <c r="L232">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="M232">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="N232">
         <v>2.4</v>
       </c>
       <c r="O232">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="P232">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Q232">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="R232">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="S232">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="T232">
         <v>7.4</v>
@@ -48520,13 +48175,13 @@
         <v>9.4</v>
       </c>
       <c r="X232">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y232">
         <v>17</v>
       </c>
       <c r="Z232">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AA232">
         <v>44</v>
@@ -48547,16 +48202,16 @@
         <v>10.5</v>
       </c>
       <c r="AG232">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH232">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AI232">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ232">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AK232">
         <v>22</v>
@@ -48568,61 +48223,61 @@
         <v>16.5</v>
       </c>
       <c r="AN232">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AO232">
         <v>24</v>
       </c>
       <c r="AP232">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AQ232">
         <v>65</v>
       </c>
       <c r="AR232">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AS232">
         <v>65</v>
       </c>
       <c r="AT232">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AU232">
         <v>50</v>
       </c>
       <c r="AV232">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AW232">
         <v>75</v>
       </c>
       <c r="AX232">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AY232">
         <v>1000</v>
       </c>
       <c r="AZ232">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="BA232">
         <v>60</v>
       </c>
       <c r="BB232">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="BC232">
         <v>38</v>
       </c>
       <c r="BD232">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="BE232">
         <v>1000</v>
       </c>
       <c r="BF232" t="s">
-        <v>688</v>
+        <v>665</v>
       </c>
       <c r="BG232">
         <v>14754815</v>
@@ -48634,16 +48289,16 @@
         <v>58805</v>
       </c>
       <c r="BJ232" t="s">
-        <v>728</v>
+        <v>682</v>
       </c>
       <c r="BK232" t="s">
-        <v>768</v>
+        <v>699</v>
       </c>
       <c r="BL232" t="s">
-        <v>808</v>
+        <v>716</v>
       </c>
       <c r="BM232" t="s">
-        <v>848</v>
+        <v>733</v>
       </c>
     </row>
     <row r="233" spans="1:65">
@@ -48672,49 +48327,49 @@
         <v>3.6</v>
       </c>
       <c r="I233">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J233">
         <v>3.8</v>
       </c>
       <c r="K233">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L233">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="M233">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="N233">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O233">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="P233">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="Q233">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="R233">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="S233">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="T233">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="U233">
+        <v>19</v>
+      </c>
+      <c r="V233">
+        <v>16.5</v>
+      </c>
+      <c r="W233">
         <v>17.5</v>
-      </c>
-      <c r="V233">
-        <v>15.5</v>
-      </c>
-      <c r="W233">
-        <v>1000</v>
       </c>
       <c r="X233">
         <v>24</v>
@@ -48732,7 +48387,7 @@
         <v>11.5</v>
       </c>
       <c r="AC233">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD233">
         <v>8.199999999999999</v>
@@ -48747,7 +48402,7 @@
         <v>14.5</v>
       </c>
       <c r="AH233">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI233">
         <v>38</v>
@@ -48765,16 +48420,16 @@
         <v>10.5</v>
       </c>
       <c r="AN233">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO233">
         <v>16</v>
       </c>
       <c r="AP233">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AQ233">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AR233">
         <v>23</v>
@@ -48789,37 +48444,37 @@
         <v>21</v>
       </c>
       <c r="AV233">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW233">
         <v>32</v>
       </c>
       <c r="AX233">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AY233">
         <v>75</v>
       </c>
       <c r="AZ233">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="BA233">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="BB233">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BC233">
         <v>32</v>
       </c>
       <c r="BD233">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BE233">
         <v>980</v>
       </c>
       <c r="BF233" t="s">
-        <v>689</v>
+        <v>666</v>
       </c>
       <c r="BG233">
         <v>42741188</v>
@@ -48831,16 +48486,16 @@
         <v>58805</v>
       </c>
       <c r="BJ233" t="s">
-        <v>729</v>
+        <v>683</v>
       </c>
       <c r="BK233" t="s">
-        <v>769</v>
+        <v>700</v>
       </c>
       <c r="BL233" t="s">
-        <v>809</v>
+        <v>717</v>
       </c>
       <c r="BM233" t="s">
-        <v>849</v>
+        <v>734</v>
       </c>
     </row>
     <row r="234" spans="1:65">
@@ -48875,7 +48530,7 @@
         <v>3.05</v>
       </c>
       <c r="K234">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L234">
         <v>1.64</v>
@@ -48914,7 +48569,7 @@
         <v>13.5</v>
       </c>
       <c r="X234">
-        <v>3.9</v>
+        <v>17.5</v>
       </c>
       <c r="Y234">
         <v>28</v>
@@ -48944,7 +48599,7 @@
         <v>19</v>
       </c>
       <c r="AH234">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AI234">
         <v>60</v>
@@ -48956,7 +48611,7 @@
         <v>16.5</v>
       </c>
       <c r="AL234">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AM234">
         <v>14.5</v>
@@ -48974,13 +48629,13 @@
         <v>85</v>
       </c>
       <c r="AR234">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AS234">
         <v>40</v>
       </c>
       <c r="AT234">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AU234">
         <v>36</v>
@@ -48998,25 +48653,25 @@
         <v>1000</v>
       </c>
       <c r="AZ234">
-        <v>1.58</v>
+        <v>3.4</v>
       </c>
       <c r="BA234">
         <v>34</v>
       </c>
       <c r="BB234">
-        <v>1.62</v>
+        <v>3.6</v>
       </c>
       <c r="BC234">
         <v>70</v>
       </c>
       <c r="BD234">
-        <v>1.64</v>
+        <v>3.75</v>
       </c>
       <c r="BE234">
         <v>1000</v>
       </c>
       <c r="BF234" t="s">
-        <v>690</v>
+        <v>667</v>
       </c>
       <c r="BG234">
         <v>1067444</v>
@@ -49028,16 +48683,16 @@
         <v>58805</v>
       </c>
       <c r="BJ234" t="s">
-        <v>730</v>
+        <v>684</v>
       </c>
       <c r="BK234" t="s">
-        <v>770</v>
+        <v>701</v>
       </c>
       <c r="BL234" t="s">
-        <v>810</v>
+        <v>718</v>
       </c>
       <c r="BM234" t="s">
-        <v>850</v>
+        <v>735</v>
       </c>
     </row>
     <row r="235" spans="1:65">
@@ -49069,7 +48724,7 @@
         <v>3.35</v>
       </c>
       <c r="J235">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K235">
         <v>3.6</v>
@@ -49117,7 +48772,7 @@
         <v>26</v>
       </c>
       <c r="Z235">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AA235">
         <v>980</v>
@@ -49198,7 +48853,7 @@
         <v>3.85</v>
       </c>
       <c r="BA235">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB235">
         <v>4</v>
@@ -49213,7 +48868,7 @@
         <v>1000</v>
       </c>
       <c r="BF235" t="s">
-        <v>691</v>
+        <v>668</v>
       </c>
       <c r="BG235">
         <v>5913012</v>
@@ -49225,16 +48880,16 @@
         <v>58805</v>
       </c>
       <c r="BJ235" t="s">
-        <v>731</v>
+        <v>685</v>
       </c>
       <c r="BK235" t="s">
-        <v>771</v>
+        <v>702</v>
       </c>
       <c r="BL235" t="s">
-        <v>811</v>
+        <v>719</v>
       </c>
       <c r="BM235" t="s">
-        <v>851</v>
+        <v>736</v>
       </c>
     </row>
     <row r="236" spans="1:65">
@@ -49254,22 +48909,22 @@
         <v>652</v>
       </c>
       <c r="F236">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G236">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="H236">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="I236">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J236">
         <v>4.7</v>
       </c>
       <c r="K236">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="L236">
         <v>2.2</v>
@@ -49284,7 +48939,7 @@
         <v>1.82</v>
       </c>
       <c r="P236">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="Q236">
         <v>2.08</v>
@@ -49293,7 +48948,7 @@
         <v>1.92</v>
       </c>
       <c r="S236">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="T236">
         <v>15</v>
@@ -49302,7 +48957,7 @@
         <v>21</v>
       </c>
       <c r="V236">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="W236">
         <v>28</v>
@@ -49332,13 +48987,13 @@
         <v>12</v>
       </c>
       <c r="AF236">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AG236">
         <v>32</v>
       </c>
       <c r="AH236">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AI236">
         <v>130</v>
@@ -49359,13 +49014,13 @@
         <v>19.5</v>
       </c>
       <c r="AO236">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP236">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AQ236">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AR236">
         <v>11</v>
@@ -49392,7 +49047,7 @@
         <v>140</v>
       </c>
       <c r="AZ236">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="BA236">
         <v>6.8</v>
@@ -49404,13 +49059,13 @@
         <v>150</v>
       </c>
       <c r="BD236">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="BE236">
         <v>1000</v>
       </c>
       <c r="BF236" t="s">
-        <v>692</v>
+        <v>669</v>
       </c>
       <c r="BG236">
         <v>328204</v>
@@ -49422,16 +49077,16 @@
         <v>58805</v>
       </c>
       <c r="BJ236" t="s">
-        <v>732</v>
+        <v>686</v>
       </c>
       <c r="BK236" t="s">
-        <v>772</v>
+        <v>703</v>
       </c>
       <c r="BL236" t="s">
-        <v>812</v>
+        <v>720</v>
       </c>
       <c r="BM236" t="s">
-        <v>852</v>
+        <v>737</v>
       </c>
     </row>
     <row r="237" spans="1:65">
@@ -49466,7 +49121,7 @@
         <v>5.1</v>
       </c>
       <c r="K237">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L237">
         <v>3.15</v>
@@ -49478,19 +49133,19 @@
         <v>1.43</v>
       </c>
       <c r="O237">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P237">
         <v>1.58</v>
       </c>
       <c r="Q237">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R237">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="S237">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T237">
         <v>28</v>
@@ -49607,7 +49262,7 @@
         <v>980</v>
       </c>
       <c r="BF237" t="s">
-        <v>693</v>
+        <v>670</v>
       </c>
       <c r="BG237">
         <v>2658589</v>
@@ -49619,16 +49274,16 @@
         <v>58805</v>
       </c>
       <c r="BJ237" t="s">
-        <v>733</v>
+        <v>687</v>
       </c>
       <c r="BK237" t="s">
-        <v>773</v>
+        <v>704</v>
       </c>
       <c r="BL237" t="s">
-        <v>813</v>
+        <v>721</v>
       </c>
       <c r="BM237" t="s">
-        <v>853</v>
+        <v>738</v>
       </c>
     </row>
     <row r="238" spans="1:65">
@@ -49648,7 +49303,7 @@
         <v>654</v>
       </c>
       <c r="F238">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="G238">
         <v>1.5</v>
@@ -49657,37 +49312,37 @@
         <v>8.4</v>
       </c>
       <c r="I238">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="J238">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K238">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L238">
         <v>1.78</v>
       </c>
       <c r="M238">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="N238">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O238">
         <v>2.3</v>
       </c>
       <c r="P238">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q238">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="R238">
         <v>1.58</v>
       </c>
       <c r="S238">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T238">
         <v>9.800000000000001</v>
@@ -49804,7 +49459,7 @@
         <v>1000</v>
       </c>
       <c r="BF238" t="s">
-        <v>694</v>
+        <v>671</v>
       </c>
       <c r="BG238">
         <v>2277370</v>
@@ -49816,16 +49471,16 @@
         <v>58805</v>
       </c>
       <c r="BJ238" t="s">
-        <v>734</v>
+        <v>688</v>
       </c>
       <c r="BK238" t="s">
-        <v>774</v>
+        <v>705</v>
       </c>
       <c r="BL238" t="s">
-        <v>814</v>
+        <v>722</v>
       </c>
       <c r="BM238" t="s">
-        <v>854</v>
+        <v>739</v>
       </c>
     </row>
   </sheetData>
